--- a/June2013/ISWRPQAQ_stats.xlsx
+++ b/June2013/ISWRPQAQ_stats.xlsx
@@ -767,13 +767,13 @@
         <v>695</v>
       </c>
       <c r="S4">
-        <v>3.564772661870506</v>
+        <v>3.564789928057556</v>
       </c>
       <c r="T4">
-        <v>1.334906754550208</v>
+        <v>1.33490023228621</v>
       </c>
       <c r="U4">
-        <v>0.222</v>
+        <v>0.223</v>
       </c>
       <c r="V4">
         <v>2.56</v>
@@ -791,10 +791,10 @@
         <v>695</v>
       </c>
       <c r="AA4">
-        <v>37.4271942446043</v>
+        <v>37.42733812949638</v>
       </c>
       <c r="AB4">
-        <v>3.493665743835522</v>
+        <v>3.493439832997231</v>
       </c>
       <c r="AC4">
         <v>30.1</v>
@@ -863,10 +863,10 @@
         <v>695</v>
       </c>
       <c r="AY4">
-        <v>0.3034569122302157</v>
+        <v>0.3033798043165467</v>
       </c>
       <c r="AZ4">
-        <v>0.742271419134681</v>
+        <v>0.7422506446188085</v>
       </c>
       <c r="BA4">
         <v>-1.81</v>
@@ -887,10 +887,10 @@
         <v>695</v>
       </c>
       <c r="BG4">
-        <v>0.3869674086330936</v>
+        <v>0.386869005755396</v>
       </c>
       <c r="BH4">
-        <v>0.889180903456505</v>
+        <v>0.8891508256838118</v>
       </c>
       <c r="BI4">
         <v>-1.88</v>
@@ -902,7 +902,7 @@
         <v>0.236</v>
       </c>
       <c r="BL4">
-        <v>0.6254999999999999</v>
+        <v>0.625</v>
       </c>
       <c r="BM4">
         <v>4.14</v>
@@ -988,10 +988,10 @@
         <v>696</v>
       </c>
       <c r="AA5">
-        <v>37.89080459770114</v>
+        <v>37.89094827586206</v>
       </c>
       <c r="AB5">
-        <v>3.277997535218673</v>
+        <v>3.277881614161414</v>
       </c>
       <c r="AC5">
         <v>30.5</v>
@@ -1060,13 +1060,13 @@
         <v>696</v>
       </c>
       <c r="AY5">
-        <v>0.3905679468390807</v>
+        <v>0.390494060344828</v>
       </c>
       <c r="AZ5">
-        <v>0.4670207486806408</v>
+        <v>0.4669642439968877</v>
       </c>
       <c r="BA5">
-        <v>-0.241</v>
+        <v>-0.242</v>
       </c>
       <c r="BB5">
         <v>0.07092499999999999</v>
@@ -1084,10 +1084,10 @@
         <v>696</v>
       </c>
       <c r="BG5">
-        <v>0.4878618031609195</v>
+        <v>0.4878042959770114</v>
       </c>
       <c r="BH5">
-        <v>0.6955655709905629</v>
+        <v>0.6955130901934168</v>
       </c>
       <c r="BI5">
         <v>-0.395</v>
@@ -1161,10 +1161,10 @@
         <v>696</v>
       </c>
       <c r="S6">
-        <v>4.116831896551733</v>
+        <v>4.116817528735641</v>
       </c>
       <c r="T6">
-        <v>0.9348523134482598</v>
+        <v>0.934848185902453</v>
       </c>
       <c r="U6">
         <v>0.676</v>
@@ -1185,13 +1185,13 @@
         <v>696</v>
       </c>
       <c r="AA6">
-        <v>37.87241379310343</v>
+        <v>37.87255747126434</v>
       </c>
       <c r="AB6">
-        <v>3.285234099129441</v>
+        <v>3.284908997064372</v>
       </c>
       <c r="AC6">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="AD6">
         <v>35.9</v>
@@ -1233,10 +1233,10 @@
         <v>696</v>
       </c>
       <c r="AQ6">
-        <v>1.18697658045977</v>
+        <v>1.186973706896552</v>
       </c>
       <c r="AR6">
-        <v>0.6689590496959881</v>
+        <v>0.6689614413604885</v>
       </c>
       <c r="AS6">
         <v>0.0529</v>
@@ -1257,10 +1257,10 @@
         <v>696</v>
       </c>
       <c r="AY6">
-        <v>0.3607276183908044</v>
+        <v>0.3606393455459767</v>
       </c>
       <c r="AZ6">
-        <v>0.5050847825009612</v>
+        <v>0.5049688211545006</v>
       </c>
       <c r="BA6">
         <v>-0.241</v>
@@ -1281,10 +1281,10 @@
         <v>696</v>
       </c>
       <c r="BG6">
-        <v>0.4602573079022988</v>
+        <v>0.4601930510057471</v>
       </c>
       <c r="BH6">
-        <v>0.7428834342730758</v>
+        <v>0.7428528867673825</v>
       </c>
       <c r="BI6">
         <v>-0.395</v>
@@ -1296,7 +1296,7 @@
         <v>0.1285</v>
       </c>
       <c r="BL6">
-        <v>0.572</v>
+        <v>0.5712499999999999</v>
       </c>
       <c r="BM6">
         <v>3.83</v>
@@ -1358,10 +1358,10 @@
         <v>696</v>
       </c>
       <c r="S7">
-        <v>4.072906609195399</v>
+        <v>4.072864942528733</v>
       </c>
       <c r="T7">
-        <v>0.9313586153583897</v>
+        <v>0.9313534108907523</v>
       </c>
       <c r="U7">
         <v>0.666</v>
@@ -1454,10 +1454,10 @@
         <v>696</v>
       </c>
       <c r="AY7">
-        <v>0.3521192916666668</v>
+        <v>0.3520698204022988</v>
       </c>
       <c r="AZ7">
-        <v>0.4692644182034209</v>
+        <v>0.4692589774886401</v>
       </c>
       <c r="BA7">
         <v>-0.234</v>
@@ -1478,13 +1478,13 @@
         <v>696</v>
       </c>
       <c r="BG7">
-        <v>0.4424750172413789</v>
+        <v>0.4423980229885053</v>
       </c>
       <c r="BH7">
-        <v>0.6621211978236456</v>
+        <v>0.662097494586767</v>
       </c>
       <c r="BI7">
-        <v>-0.382</v>
+        <v>-0.383</v>
       </c>
       <c r="BJ7">
         <v>0.012875</v>
@@ -1493,7 +1493,7 @@
         <v>0.118</v>
       </c>
       <c r="BL7">
-        <v>0.5642499999999999</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="BM7">
         <v>3.54</v>
@@ -1555,10 +1555,10 @@
         <v>696</v>
       </c>
       <c r="S8">
-        <v>4.045543103448279</v>
+        <v>4.045528735632187</v>
       </c>
       <c r="T8">
-        <v>0.9312585224036828</v>
+        <v>0.9312509598664656</v>
       </c>
       <c r="U8">
         <v>0.658</v>
@@ -1651,10 +1651,10 @@
         <v>696</v>
       </c>
       <c r="AY8">
-        <v>0.3714532485632184</v>
+        <v>0.3714069870689655</v>
       </c>
       <c r="AZ8">
-        <v>0.4943024721152252</v>
+        <v>0.4942984014182151</v>
       </c>
       <c r="BA8">
         <v>-0.228</v>
@@ -1675,10 +1675,10 @@
         <v>696</v>
       </c>
       <c r="BG8">
-        <v>0.4630573936781604</v>
+        <v>0.4629896939655164</v>
       </c>
       <c r="BH8">
-        <v>0.6932454184862704</v>
+        <v>0.6932231495590399</v>
       </c>
       <c r="BI8">
         <v>-0.373</v>
@@ -1728,10 +1728,10 @@
         <v>696</v>
       </c>
       <c r="K9">
-        <v>38.15761494252874</v>
+        <v>38.15747126436782</v>
       </c>
       <c r="L9">
-        <v>3.004945477857905</v>
+        <v>3.004759090745492</v>
       </c>
       <c r="M9">
         <v>30.2</v>
@@ -1800,10 +1800,10 @@
         <v>696</v>
       </c>
       <c r="AI9">
-        <v>111.5772988505747</v>
+        <v>111.5771551724138</v>
       </c>
       <c r="AJ9">
-        <v>29.23017759914343</v>
+        <v>29.23026141516543</v>
       </c>
       <c r="AK9">
         <v>62.1</v>
@@ -1824,10 +1824,10 @@
         <v>696</v>
       </c>
       <c r="AQ9">
-        <v>1.179113505747126</v>
+        <v>1.179097701149425</v>
       </c>
       <c r="AR9">
-        <v>0.6640084277581715</v>
+        <v>0.6640096404955024</v>
       </c>
       <c r="AS9">
         <v>0.0525</v>
@@ -1848,13 +1848,13 @@
         <v>696</v>
       </c>
       <c r="AY9">
-        <v>0.3713605287356319</v>
+        <v>0.371306807471264</v>
       </c>
       <c r="AZ9">
-        <v>0.4719963859452411</v>
+        <v>0.4719878403012908</v>
       </c>
       <c r="BA9">
-        <v>-0.223</v>
+        <v>-0.224</v>
       </c>
       <c r="BB9">
         <v>0.033275</v>
@@ -1872,13 +1872,13 @@
         <v>696</v>
       </c>
       <c r="BG9">
-        <v>0.4599624856321843</v>
+        <v>0.4598689856321843</v>
       </c>
       <c r="BH9">
-        <v>0.6694039589453683</v>
+        <v>0.6693494469657758</v>
       </c>
       <c r="BI9">
-        <v>-0.365</v>
+        <v>-0.366</v>
       </c>
       <c r="BJ9">
         <v>0.01265</v>
@@ -1973,10 +1973,10 @@
         <v>696</v>
       </c>
       <c r="AA10">
-        <v>37.77255747126436</v>
+        <v>37.77284482758619</v>
       </c>
       <c r="AB10">
-        <v>3.26090110856765</v>
+        <v>3.260497549364519</v>
       </c>
       <c r="AC10">
         <v>30.4</v>
@@ -2045,13 +2045,13 @@
         <v>696</v>
       </c>
       <c r="AY10">
-        <v>0.3717236738505746</v>
+        <v>0.3716574238505746</v>
       </c>
       <c r="AZ10">
-        <v>0.4779426672515629</v>
+        <v>0.4778841985457393</v>
       </c>
       <c r="BA10">
-        <v>-0.233</v>
+        <v>-0.234</v>
       </c>
       <c r="BB10">
         <v>0.030225</v>
@@ -2069,13 +2069,13 @@
         <v>696</v>
       </c>
       <c r="BG10">
-        <v>0.4628146839080456</v>
+        <v>0.462723635057471</v>
       </c>
       <c r="BH10">
-        <v>0.6931601340804742</v>
+        <v>0.6930511354104211</v>
       </c>
       <c r="BI10">
-        <v>-0.381</v>
+        <v>-0.382</v>
       </c>
       <c r="BJ10">
         <v>0.0112</v>
@@ -2084,7 +2084,7 @@
         <v>0.1125</v>
       </c>
       <c r="BL10">
-        <v>0.5632499999999999</v>
+        <v>0.5625</v>
       </c>
       <c r="BM10">
         <v>2.97</v>
@@ -2242,13 +2242,13 @@
         <v>696</v>
       </c>
       <c r="AY11">
-        <v>0.4015050229885061</v>
+        <v>0.4014654554597704</v>
       </c>
       <c r="AZ11">
-        <v>0.5525336110367562</v>
+        <v>0.5525340722174159</v>
       </c>
       <c r="BA11">
-        <v>-0.247</v>
+        <v>-0.248</v>
       </c>
       <c r="BB11">
         <v>0.02565</v>
@@ -2266,16 +2266,16 @@
         <v>696</v>
       </c>
       <c r="BG11">
-        <v>0.5050178649425282</v>
+        <v>0.5049279612068964</v>
       </c>
       <c r="BH11">
-        <v>0.8087512850414629</v>
+        <v>0.8086718914952065</v>
       </c>
       <c r="BI11">
-        <v>-0.404</v>
+        <v>-0.405</v>
       </c>
       <c r="BJ11">
-        <v>0.009702499999999999</v>
+        <v>0.009705</v>
       </c>
       <c r="BK11">
         <v>0.108</v>
@@ -2367,10 +2367,10 @@
         <v>696</v>
       </c>
       <c r="AA12">
-        <v>37.71580459770119</v>
+        <v>37.71566091954027</v>
       </c>
       <c r="AB12">
-        <v>3.305423089066544</v>
+        <v>3.305360654899809</v>
       </c>
       <c r="AC12">
         <v>30.4</v>
@@ -2415,10 +2415,10 @@
         <v>696</v>
       </c>
       <c r="AQ12">
-        <v>1.174124137931035</v>
+        <v>1.174138505747127</v>
       </c>
       <c r="AR12">
-        <v>0.6613396922233283</v>
+        <v>0.661349719073087</v>
       </c>
       <c r="AS12">
         <v>0.0522</v>
@@ -2439,16 +2439,16 @@
         <v>696</v>
       </c>
       <c r="AY12">
-        <v>0.3938268360632187</v>
+        <v>0.3937440060344828</v>
       </c>
       <c r="AZ12">
-        <v>0.5461676312166444</v>
+        <v>0.5460482923451059</v>
       </c>
       <c r="BA12">
         <v>-0.256</v>
       </c>
       <c r="BB12">
-        <v>0.0243</v>
+        <v>0.024375</v>
       </c>
       <c r="BC12">
         <v>0.09725</v>
@@ -2463,10 +2463,10 @@
         <v>696</v>
       </c>
       <c r="BG12">
-        <v>0.4938454589080463</v>
+        <v>0.493763469396552</v>
       </c>
       <c r="BH12">
-        <v>0.7871484249950985</v>
+        <v>0.787071177424026</v>
       </c>
       <c r="BI12">
         <v>-0.419</v>
@@ -2540,10 +2540,10 @@
         <v>696</v>
       </c>
       <c r="S13">
-        <v>3.975772988505752</v>
+        <v>3.975729885057476</v>
       </c>
       <c r="T13">
-        <v>0.9265539916652283</v>
+        <v>0.9265358575242832</v>
       </c>
       <c r="U13">
         <v>0.648</v>
@@ -2636,10 +2636,10 @@
         <v>696</v>
       </c>
       <c r="AY13">
-        <v>0.3743515642241377</v>
+        <v>0.374273894827586</v>
       </c>
       <c r="AZ13">
-        <v>0.5130613795797232</v>
+        <v>0.5129730882142856</v>
       </c>
       <c r="BA13">
         <v>-0.274</v>
@@ -2660,13 +2660,13 @@
         <v>696</v>
       </c>
       <c r="BG13">
-        <v>0.4698827327586206</v>
+        <v>0.4698150471982757</v>
       </c>
       <c r="BH13">
-        <v>0.7394361864759991</v>
+        <v>0.7393857048038061</v>
       </c>
       <c r="BI13">
-        <v>-0.447</v>
+        <v>-0.448</v>
       </c>
       <c r="BJ13">
         <v>0.007385</v>
@@ -2675,7 +2675,7 @@
         <v>0.0979</v>
       </c>
       <c r="BL13">
-        <v>0.5507500000000001</v>
+        <v>0.55</v>
       </c>
       <c r="BM13">
         <v>3.53</v>
@@ -2785,10 +2785,10 @@
         <v>696</v>
       </c>
       <c r="AI14">
-        <v>110.7889367816093</v>
+        <v>110.7887931034483</v>
       </c>
       <c r="AJ14">
-        <v>28.95344476500208</v>
+        <v>28.95357466247566</v>
       </c>
       <c r="AK14">
         <v>61.5</v>
@@ -2833,10 +2833,10 @@
         <v>696</v>
       </c>
       <c r="AY14">
-        <v>0.4062426307471266</v>
+        <v>0.406180820402299</v>
       </c>
       <c r="AZ14">
-        <v>0.582000081619562</v>
+        <v>0.5819653109816723</v>
       </c>
       <c r="BA14">
         <v>-0.299</v>
@@ -2857,13 +2857,13 @@
         <v>696</v>
       </c>
       <c r="BG14">
-        <v>0.5118083807471261</v>
+        <v>0.5116871106321838</v>
       </c>
       <c r="BH14">
-        <v>0.8450982774547799</v>
+        <v>0.8450256537113769</v>
       </c>
       <c r="BI14">
-        <v>-0.488</v>
+        <v>-0.489</v>
       </c>
       <c r="BJ14">
         <v>0.0078925</v>
@@ -2934,10 +2934,10 @@
         <v>696</v>
       </c>
       <c r="S15">
-        <v>3.953760057471258</v>
+        <v>3.953702586206891</v>
       </c>
       <c r="T15">
-        <v>0.9296226688143537</v>
+        <v>0.9296098984070268</v>
       </c>
       <c r="U15">
         <v>0.639</v>
@@ -2958,10 +2958,10 @@
         <v>696</v>
       </c>
       <c r="AA15">
-        <v>37.65948275862065</v>
+        <v>37.65962643678158</v>
       </c>
       <c r="AB15">
-        <v>3.327249044916317</v>
+        <v>3.327196738041049</v>
       </c>
       <c r="AC15">
         <v>30.5</v>
@@ -3006,10 +3006,10 @@
         <v>696</v>
       </c>
       <c r="AQ15">
-        <v>1.170304597701149</v>
+        <v>1.170275862068965</v>
       </c>
       <c r="AR15">
-        <v>0.659055691826169</v>
+        <v>0.659030815574624</v>
       </c>
       <c r="AS15">
         <v>0.052</v>
@@ -3030,13 +3030,13 @@
         <v>696</v>
       </c>
       <c r="AY15">
-        <v>0.4099562040229883</v>
+        <v>0.4098923692528734</v>
       </c>
       <c r="AZ15">
-        <v>0.6131604672811267</v>
+        <v>0.6131096754845277</v>
       </c>
       <c r="BA15">
-        <v>-0.319</v>
+        <v>-0.32</v>
       </c>
       <c r="BB15">
         <v>0.023275</v>
@@ -3054,10 +3054,10 @@
         <v>696</v>
       </c>
       <c r="BG15">
-        <v>0.5156490804597698</v>
+        <v>0.5155788376436778</v>
       </c>
       <c r="BH15">
-        <v>0.8814454764003246</v>
+        <v>0.881381172574131</v>
       </c>
       <c r="BI15">
         <v>-0.523</v>
@@ -3069,7 +3069,7 @@
         <v>0.103</v>
       </c>
       <c r="BL15">
-        <v>0.5567500000000001</v>
+        <v>0.5557500000000001</v>
       </c>
       <c r="BM15">
         <v>4.51</v>
@@ -3131,10 +3131,10 @@
         <v>696</v>
       </c>
       <c r="S16">
-        <v>3.957610632183906</v>
+        <v>3.957596264367815</v>
       </c>
       <c r="T16">
-        <v>0.926348907558203</v>
+        <v>0.9263348133387255</v>
       </c>
       <c r="U16">
         <v>0.642</v>
@@ -3155,10 +3155,10 @@
         <v>696</v>
       </c>
       <c r="AA16">
-        <v>37.69181034482755</v>
+        <v>37.69166666666663</v>
       </c>
       <c r="AB16">
-        <v>3.30488265749429</v>
+        <v>3.304793045614282</v>
       </c>
       <c r="AC16">
         <v>30.5</v>
@@ -3227,10 +3227,10 @@
         <v>696</v>
       </c>
       <c r="AY16">
-        <v>0.373865816479885</v>
+        <v>0.3737967822844829</v>
       </c>
       <c r="AZ16">
-        <v>0.5989376543217942</v>
+        <v>0.5988759063264132</v>
       </c>
       <c r="BA16">
         <v>-0.334</v>
@@ -3251,13 +3251,13 @@
         <v>696</v>
       </c>
       <c r="BG16">
-        <v>0.4745606111350573</v>
+        <v>0.4744794418390805</v>
       </c>
       <c r="BH16">
-        <v>0.864141412163873</v>
+        <v>0.8641098424859364</v>
       </c>
       <c r="BI16">
-        <v>-0.547</v>
+        <v>-0.548</v>
       </c>
       <c r="BJ16">
         <v>0.0077175</v>
@@ -3266,7 +3266,7 @@
         <v>0.1002</v>
       </c>
       <c r="BL16">
-        <v>0.53425</v>
+        <v>0.5335000000000001</v>
       </c>
       <c r="BM16">
         <v>4.56</v>
@@ -3328,10 +3328,10 @@
         <v>696</v>
       </c>
       <c r="S17">
-        <v>3.930715517241384</v>
+        <v>3.930701149425291</v>
       </c>
       <c r="T17">
-        <v>0.9220263215647092</v>
+        <v>0.922026098539063</v>
       </c>
       <c r="U17">
         <v>0.64</v>
@@ -3376,10 +3376,10 @@
         <v>696</v>
       </c>
       <c r="AI17">
-        <v>110.5152298850575</v>
+        <v>110.5150862068966</v>
       </c>
       <c r="AJ17">
-        <v>28.98206785109537</v>
+        <v>28.98213966498857</v>
       </c>
       <c r="AK17">
         <v>61.1</v>
@@ -3424,10 +3424,10 @@
         <v>696</v>
       </c>
       <c r="AY17">
-        <v>0.3578944885201151</v>
+        <v>0.3578326381752875</v>
       </c>
       <c r="AZ17">
-        <v>0.5992146090896564</v>
+        <v>0.5991545088254259</v>
       </c>
       <c r="BA17">
         <v>-0.342</v>
@@ -3448,16 +3448,16 @@
         <v>696</v>
       </c>
       <c r="BG17">
-        <v>0.4592250337216953</v>
+        <v>0.4591476091321837</v>
       </c>
       <c r="BH17">
-        <v>0.8643576038504724</v>
+        <v>0.8642714565064044</v>
       </c>
       <c r="BI17">
         <v>-0.5590000000000001</v>
       </c>
       <c r="BJ17">
-        <v>0.0054025</v>
+        <v>0.005405</v>
       </c>
       <c r="BK17">
         <v>0.0863</v>
@@ -3466,7 +3466,7 @@
         <v>0.51625</v>
       </c>
       <c r="BM17">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="18" spans="1:65">
@@ -3525,10 +3525,10 @@
         <v>696</v>
       </c>
       <c r="S18">
-        <v>3.906580459770115</v>
+        <v>3.906566091954023</v>
       </c>
       <c r="T18">
-        <v>0.9207673852225503</v>
+        <v>0.9207595964607094</v>
       </c>
       <c r="U18">
         <v>0.635</v>
@@ -3573,10 +3573,10 @@
         <v>696</v>
       </c>
       <c r="AI18">
-        <v>110.2754310344828</v>
+        <v>110.2738505747127</v>
       </c>
       <c r="AJ18">
-        <v>28.902502191116</v>
+        <v>28.90215356493886</v>
       </c>
       <c r="AK18">
         <v>61</v>
@@ -3621,19 +3621,19 @@
         <v>696</v>
       </c>
       <c r="AY18">
-        <v>0.3602861219540228</v>
+        <v>0.3602131804022987</v>
       </c>
       <c r="AZ18">
-        <v>0.5980348776082753</v>
+        <v>0.5979159781091402</v>
       </c>
       <c r="BA18">
-        <v>-0.342</v>
+        <v>-0.343</v>
       </c>
       <c r="BB18">
         <v>0.0106</v>
       </c>
       <c r="BC18">
-        <v>0.0828</v>
+        <v>0.08274999999999999</v>
       </c>
       <c r="BD18">
         <v>0.5345</v>
@@ -3645,13 +3645,13 @@
         <v>696</v>
       </c>
       <c r="BG18">
-        <v>0.4606515329454018</v>
+        <v>0.4605790124999997</v>
       </c>
       <c r="BH18">
-        <v>0.8595435150404299</v>
+        <v>0.8594682778295905</v>
       </c>
       <c r="BI18">
-        <v>-0.5600000000000001</v>
+        <v>-0.5610000000000001</v>
       </c>
       <c r="BJ18">
         <v>0.005305</v>
@@ -3722,10 +3722,10 @@
         <v>696</v>
       </c>
       <c r="S19">
-        <v>3.891603448275867</v>
+        <v>3.891560344827591</v>
       </c>
       <c r="T19">
-        <v>0.9188232265551179</v>
+        <v>0.9188097551383713</v>
       </c>
       <c r="U19">
         <v>0.634</v>
@@ -3794,10 +3794,10 @@
         <v>696</v>
       </c>
       <c r="AQ19">
-        <v>1.164024712643677</v>
+        <v>1.164023275862068</v>
       </c>
       <c r="AR19">
-        <v>0.6567224249823802</v>
+        <v>0.6567230439792909</v>
       </c>
       <c r="AS19">
         <v>0.0516</v>
@@ -3818,10 +3818,10 @@
         <v>696</v>
       </c>
       <c r="AY19">
-        <v>0.3474642925287354</v>
+        <v>0.3473960899425287</v>
       </c>
       <c r="AZ19">
-        <v>0.586830676941384</v>
+        <v>0.5867879471497162</v>
       </c>
       <c r="BA19">
         <v>-0.343</v>
@@ -3842,13 +3842,13 @@
         <v>696</v>
       </c>
       <c r="BG19">
-        <v>0.4438805348419547</v>
+        <v>0.4438069154166671</v>
       </c>
       <c r="BH19">
-        <v>0.8417861955902659</v>
+        <v>0.8417700247225921</v>
       </c>
       <c r="BI19">
-        <v>-0.5610000000000001</v>
+        <v>-0.5620000000000001</v>
       </c>
       <c r="BJ19">
         <v>0.00518</v>
@@ -3895,10 +3895,10 @@
         <v>696</v>
       </c>
       <c r="K20">
-        <v>37.99195402298852</v>
+        <v>37.9918103448276</v>
       </c>
       <c r="L20">
-        <v>2.964527682066602</v>
+        <v>2.964447203364081</v>
       </c>
       <c r="M20">
         <v>30.2</v>
@@ -3919,10 +3919,10 @@
         <v>696</v>
       </c>
       <c r="S20">
-        <v>3.871712643678156</v>
+        <v>3.871698275862063</v>
       </c>
       <c r="T20">
-        <v>0.9142671165873794</v>
+        <v>0.9142596679752594</v>
       </c>
       <c r="U20">
         <v>0.631</v>
@@ -4015,10 +4015,10 @@
         <v>696</v>
       </c>
       <c r="AY20">
-        <v>0.3167656797413795</v>
+        <v>0.3166916132183911</v>
       </c>
       <c r="AZ20">
-        <v>0.5747184396427056</v>
+        <v>0.5746017995415245</v>
       </c>
       <c r="BA20">
         <v>-0.349</v>
@@ -4027,7 +4027,7 @@
         <v>0.004484999999999999</v>
       </c>
       <c r="BC20">
-        <v>0.07185</v>
+        <v>0.0718</v>
       </c>
       <c r="BD20">
         <v>0.41425</v>
@@ -4039,10 +4039,10 @@
         <v>696</v>
       </c>
       <c r="BG20">
-        <v>0.4073104045977015</v>
+        <v>0.407274973706897</v>
       </c>
       <c r="BH20">
-        <v>0.8233577057784743</v>
+        <v>0.8233585187414106</v>
       </c>
       <c r="BI20">
         <v>-0.571</v>
@@ -4116,10 +4116,10 @@
         <v>696</v>
       </c>
       <c r="S21">
-        <v>3.851853448275864</v>
+        <v>3.851867816091956</v>
       </c>
       <c r="T21">
-        <v>0.910217712158833</v>
+        <v>0.9101578484641986</v>
       </c>
       <c r="U21">
         <v>0.629</v>
@@ -4140,10 +4140,10 @@
         <v>696</v>
       </c>
       <c r="AA21">
-        <v>37.6722701149425</v>
+        <v>37.67241379310342</v>
       </c>
       <c r="AB21">
-        <v>3.236130297066979</v>
+        <v>3.2359025393785</v>
       </c>
       <c r="AC21">
         <v>30.5</v>
@@ -4212,10 +4212,10 @@
         <v>696</v>
       </c>
       <c r="AY21">
-        <v>0.289100279310345</v>
+        <v>0.2890414860632186</v>
       </c>
       <c r="AZ21">
-        <v>0.5650655578718302</v>
+        <v>0.5650022520659094</v>
       </c>
       <c r="BA21">
         <v>-0.352</v>
@@ -4236,19 +4236,19 @@
         <v>696</v>
       </c>
       <c r="BG21">
-        <v>0.3752567140804595</v>
+        <v>0.3751976442528734</v>
       </c>
       <c r="BH21">
-        <v>0.8085037489308109</v>
+        <v>0.8084932328551795</v>
       </c>
       <c r="BI21">
-        <v>-0.576</v>
+        <v>-0.577</v>
       </c>
       <c r="BJ21">
         <v>0.0018525</v>
       </c>
       <c r="BK21">
-        <v>0.0614</v>
+        <v>0.06135</v>
       </c>
       <c r="BL21">
         <v>0.46525</v>
@@ -4313,10 +4313,10 @@
         <v>696</v>
       </c>
       <c r="S22">
-        <v>3.771923850574707</v>
+        <v>3.771981321839075</v>
       </c>
       <c r="T22">
-        <v>0.9042885028303708</v>
+        <v>0.9043521809983783</v>
       </c>
       <c r="U22">
         <v>0.603</v>
@@ -4331,7 +4331,7 @@
         <v>4.3325</v>
       </c>
       <c r="Y22">
-        <v>5.43</v>
+        <v>5.44</v>
       </c>
       <c r="Z22">
         <v>696</v>
@@ -4409,10 +4409,10 @@
         <v>696</v>
       </c>
       <c r="AY22">
-        <v>0.3065108995689655</v>
+        <v>0.3064113449712642</v>
       </c>
       <c r="AZ22">
-        <v>0.5816644760093864</v>
+        <v>0.5815705303311174</v>
       </c>
       <c r="BA22">
         <v>-0.357</v>
@@ -4421,10 +4421,10 @@
         <v>-0.0159</v>
       </c>
       <c r="BC22">
-        <v>0.0374</v>
+        <v>0.03734999999999999</v>
       </c>
       <c r="BD22">
-        <v>0.4105</v>
+        <v>0.4097499999999999</v>
       </c>
       <c r="BE22">
         <v>3.16</v>
@@ -4433,10 +4433,10 @@
         <v>696</v>
       </c>
       <c r="BG22">
-        <v>0.3998505084770115</v>
+        <v>0.3997448064655171</v>
       </c>
       <c r="BH22">
-        <v>0.8246710431232834</v>
+        <v>0.8245040843504825</v>
       </c>
       <c r="BI22">
         <v>-0.585</v>
@@ -4448,7 +4448,7 @@
         <v>0.02985</v>
       </c>
       <c r="BL22">
-        <v>0.45425</v>
+        <v>0.454</v>
       </c>
       <c r="BM22">
         <v>4.34</v>
@@ -4534,10 +4534,10 @@
         <v>696</v>
       </c>
       <c r="AA23">
-        <v>37.43793103448282</v>
+        <v>37.43821839080465</v>
       </c>
       <c r="AB23">
-        <v>3.28189685033581</v>
+        <v>3.281630449035257</v>
       </c>
       <c r="AC23">
         <v>30.5</v>
@@ -4582,10 +4582,10 @@
         <v>696</v>
       </c>
       <c r="AQ23">
-        <v>1.142920977011494</v>
+        <v>1.142919540229884</v>
       </c>
       <c r="AR23">
-        <v>0.6446784888650895</v>
+        <v>0.6446801904979766</v>
       </c>
       <c r="AS23">
         <v>0.0504</v>
@@ -4606,10 +4606,10 @@
         <v>696</v>
       </c>
       <c r="AY23">
-        <v>0.3527724235632186</v>
+        <v>0.3527309636494255</v>
       </c>
       <c r="AZ23">
-        <v>0.6197276691205741</v>
+        <v>0.6197220036831075</v>
       </c>
       <c r="BA23">
         <v>-0.353</v>
@@ -4630,10 +4630,10 @@
         <v>696</v>
       </c>
       <c r="BG23">
-        <v>0.4488442172413791</v>
+        <v>0.448734699137931</v>
       </c>
       <c r="BH23">
-        <v>0.8671105330961456</v>
+        <v>0.8669719350865824</v>
       </c>
       <c r="BI23">
         <v>-0.578</v>
@@ -4642,7 +4642,7 @@
         <v>-0.012925</v>
       </c>
       <c r="BK23">
-        <v>0.02445</v>
+        <v>0.0244</v>
       </c>
       <c r="BL23">
         <v>0.45</v>
@@ -4707,10 +4707,10 @@
         <v>696</v>
       </c>
       <c r="S24">
-        <v>3.613784482758625</v>
+        <v>3.613770114942532</v>
       </c>
       <c r="T24">
-        <v>0.8982568632270002</v>
+        <v>0.898261488917623</v>
       </c>
       <c r="U24">
         <v>0.569</v>
@@ -4779,10 +4779,10 @@
         <v>696</v>
       </c>
       <c r="AQ24">
-        <v>1.135724856321837</v>
+        <v>1.135723419540228</v>
       </c>
       <c r="AR24">
-        <v>0.6408151572677975</v>
+        <v>0.6408155057989147</v>
       </c>
       <c r="AS24">
         <v>0.05</v>
@@ -4803,10 +4803,10 @@
         <v>696</v>
       </c>
       <c r="AY24">
-        <v>0.3483970416666665</v>
+        <v>0.3483297415229885</v>
       </c>
       <c r="AZ24">
-        <v>0.6017621776192459</v>
+        <v>0.6016857442921854</v>
       </c>
       <c r="BA24">
         <v>-0.346</v>
@@ -4818,7 +4818,7 @@
         <v>0.0343</v>
       </c>
       <c r="BD24">
-        <v>0.596</v>
+        <v>0.5952499999999999</v>
       </c>
       <c r="BE24">
         <v>3.11</v>
@@ -4827,10 +4827,10 @@
         <v>696</v>
       </c>
       <c r="BG24">
-        <v>0.4370164426724136</v>
+        <v>0.4369431906609197</v>
       </c>
       <c r="BH24">
-        <v>0.8309371140072129</v>
+        <v>0.8308966301484799</v>
       </c>
       <c r="BI24">
         <v>-0.5659999999999999</v>
@@ -4839,7 +4839,7 @@
         <v>-0.01765</v>
       </c>
       <c r="BK24">
-        <v>0.02115</v>
+        <v>0.0211</v>
       </c>
       <c r="BL24">
         <v>0.4715</v>
@@ -4904,10 +4904,10 @@
         <v>696</v>
       </c>
       <c r="S25">
-        <v>3.544225574712638</v>
+        <v>3.544182471264362</v>
       </c>
       <c r="T25">
-        <v>0.8883629237505535</v>
+        <v>0.888345554505839</v>
       </c>
       <c r="U25">
         <v>0.5620000000000001</v>
@@ -4928,10 +4928,10 @@
         <v>696</v>
       </c>
       <c r="AA25">
-        <v>37.3596264367816</v>
+        <v>37.35991379310344</v>
       </c>
       <c r="AB25">
-        <v>3.182812543582772</v>
+        <v>3.182486154259609</v>
       </c>
       <c r="AC25">
         <v>30.4</v>
@@ -4976,10 +4976,10 @@
         <v>696</v>
       </c>
       <c r="AQ25">
-        <v>1.129097557471265</v>
+        <v>1.129096120689655</v>
       </c>
       <c r="AR25">
-        <v>0.637694917365909</v>
+        <v>0.6376952661869959</v>
       </c>
       <c r="AS25">
         <v>0.0495</v>
@@ -5000,13 +5000,13 @@
         <v>696</v>
       </c>
       <c r="AY25">
-        <v>0.2925649181034483</v>
+        <v>0.2924741278735633</v>
       </c>
       <c r="AZ25">
-        <v>0.4735088714928377</v>
+        <v>0.4733739889022751</v>
       </c>
       <c r="BA25">
-        <v>-0.338</v>
+        <v>-0.339</v>
       </c>
       <c r="BB25">
         <v>-0.04</v>
@@ -5024,13 +5024,13 @@
         <v>696</v>
       </c>
       <c r="BG25">
-        <v>0.3646609856321842</v>
+        <v>0.3646127227011497</v>
       </c>
       <c r="BH25">
-        <v>0.6621181241442925</v>
+        <v>0.6621201263076686</v>
       </c>
       <c r="BI25">
-        <v>-0.553</v>
+        <v>-0.554</v>
       </c>
       <c r="BJ25">
         <v>-0.0228</v>
@@ -5125,10 +5125,10 @@
         <v>696</v>
       </c>
       <c r="AA26">
-        <v>37.30474137931037</v>
+        <v>37.30488505747129</v>
       </c>
       <c r="AB26">
-        <v>3.114005113465323</v>
+        <v>3.113896305691079</v>
       </c>
       <c r="AC26">
         <v>30.4</v>
@@ -5197,10 +5197,10 @@
         <v>696</v>
       </c>
       <c r="AY26">
-        <v>0.2402349856321836</v>
+        <v>0.240178175287356</v>
       </c>
       <c r="AZ26">
-        <v>0.4102614076769405</v>
+        <v>0.4102450125049112</v>
       </c>
       <c r="BA26">
         <v>-0.337</v>
@@ -5221,10 +5221,10 @@
         <v>696</v>
       </c>
       <c r="BG26">
-        <v>0.294621436781609</v>
+        <v>0.2945535775862067</v>
       </c>
       <c r="BH26">
-        <v>0.5518768015667747</v>
+        <v>0.5518583443080607</v>
       </c>
       <c r="BI26">
         <v>-0.551</v>
@@ -5298,10 +5298,10 @@
         <v>696</v>
       </c>
       <c r="S27">
-        <v>3.359084770114945</v>
+        <v>3.359056034482762</v>
       </c>
       <c r="T27">
-        <v>0.8709461918297143</v>
+        <v>0.8709407093239906</v>
       </c>
       <c r="U27">
         <v>0.526</v>
@@ -5322,10 +5322,10 @@
         <v>696</v>
       </c>
       <c r="AA27">
-        <v>37.22227011494253</v>
+        <v>37.22241379310345</v>
       </c>
       <c r="AB27">
-        <v>3.105989760627039</v>
+        <v>3.105893757958109</v>
       </c>
       <c r="AC27">
         <v>30.4</v>
@@ -5394,10 +5394,10 @@
         <v>696</v>
       </c>
       <c r="AY27">
-        <v>0.2428989665229885</v>
+        <v>0.2428482913793104</v>
       </c>
       <c r="AZ27">
-        <v>0.4190065478495134</v>
+        <v>0.418996963289735</v>
       </c>
       <c r="BA27">
         <v>-0.334</v>
@@ -5406,7 +5406,7 @@
         <v>-0.064725</v>
       </c>
       <c r="BC27">
-        <v>0.0216</v>
+        <v>0.0215</v>
       </c>
       <c r="BD27">
         <v>0.5662499999999999</v>
@@ -5418,10 +5418,10 @@
         <v>696</v>
       </c>
       <c r="BG27">
-        <v>0.2938809758620691</v>
+        <v>0.2938213232758621</v>
       </c>
       <c r="BH27">
-        <v>0.5632953241911129</v>
+        <v>0.5632595255281928</v>
       </c>
       <c r="BI27">
         <v>-0.545</v>
@@ -5430,7 +5430,7 @@
         <v>-0.0328</v>
       </c>
       <c r="BK27">
-        <v>0.01635</v>
+        <v>0.0161</v>
       </c>
       <c r="BL27">
         <v>0.36125</v>
@@ -5471,10 +5471,10 @@
         <v>696</v>
       </c>
       <c r="K28">
-        <v>37.40890804597704</v>
+        <v>37.40862068965521</v>
       </c>
       <c r="L28">
-        <v>2.885504524321116</v>
+        <v>2.885305932649326</v>
       </c>
       <c r="M28">
         <v>30</v>
@@ -5495,10 +5495,10 @@
         <v>696</v>
       </c>
       <c r="S28">
-        <v>3.286142241379309</v>
+        <v>3.286127873563217</v>
       </c>
       <c r="T28">
-        <v>0.8692875383568973</v>
+        <v>0.8692630597684811</v>
       </c>
       <c r="U28">
         <v>0.499</v>
@@ -5519,10 +5519,10 @@
         <v>696</v>
       </c>
       <c r="AA28">
-        <v>37.12816091954024</v>
+        <v>37.12801724137932</v>
       </c>
       <c r="AB28">
-        <v>3.137305824419759</v>
+        <v>3.137213093028462</v>
       </c>
       <c r="AC28">
         <v>30.4</v>
@@ -5567,10 +5567,10 @@
         <v>696</v>
       </c>
       <c r="AQ28">
-        <v>1.104249856321838</v>
+        <v>1.10424698275862</v>
       </c>
       <c r="AR28">
-        <v>0.6254243806977807</v>
+        <v>0.6254252583673224</v>
       </c>
       <c r="AS28">
         <v>0.0481</v>
@@ -5591,19 +5591,19 @@
         <v>696</v>
       </c>
       <c r="AY28">
-        <v>0.2717642772988508</v>
+        <v>0.2716967456896555</v>
       </c>
       <c r="AZ28">
-        <v>0.468649091285257</v>
+        <v>0.4685864741756483</v>
       </c>
       <c r="BA28">
         <v>-0.33</v>
       </c>
       <c r="BB28">
-        <v>-0.0621</v>
+        <v>-0.062025</v>
       </c>
       <c r="BC28">
-        <v>0.03145</v>
+        <v>0.03135</v>
       </c>
       <c r="BD28">
         <v>0.6054999999999999</v>
@@ -5615,10 +5615,10 @@
         <v>696</v>
       </c>
       <c r="BG28">
-        <v>0.3290656091954026</v>
+        <v>0.3290154137931037</v>
       </c>
       <c r="BH28">
-        <v>0.6352812843852655</v>
+        <v>0.6352933098979651</v>
       </c>
       <c r="BI28">
         <v>-0.539</v>
@@ -5630,7 +5630,7 @@
         <v>0.02125</v>
       </c>
       <c r="BL28">
-        <v>0.36025</v>
+        <v>0.3595</v>
       </c>
       <c r="BM28">
         <v>3.06</v>
@@ -5692,10 +5692,10 @@
         <v>696</v>
       </c>
       <c r="S29">
-        <v>3.231906609195399</v>
+        <v>3.231892241379307</v>
       </c>
       <c r="T29">
-        <v>0.8642891743375702</v>
+        <v>0.8642869585066951</v>
       </c>
       <c r="U29">
         <v>0.492</v>
@@ -5740,10 +5740,10 @@
         <v>696</v>
       </c>
       <c r="AI29">
-        <v>103.9001436781609</v>
+        <v>103.9</v>
       </c>
       <c r="AJ29">
-        <v>27.61187238095609</v>
+        <v>27.61190494993108</v>
       </c>
       <c r="AK29">
         <v>56.4</v>
@@ -5764,10 +5764,10 @@
         <v>696</v>
       </c>
       <c r="AQ29">
-        <v>1.098929597701149</v>
+        <v>1.098912356321838</v>
       </c>
       <c r="AR29">
-        <v>0.623293923794595</v>
+        <v>0.6232930997933315</v>
       </c>
       <c r="AS29">
         <v>0.0478</v>
@@ -5776,7 +5776,7 @@
         <v>0.56725</v>
       </c>
       <c r="AU29">
-        <v>1.225</v>
+        <v>1.22</v>
       </c>
       <c r="AV29">
         <v>1.53</v>
@@ -5788,10 +5788,10 @@
         <v>696</v>
       </c>
       <c r="AY29">
-        <v>0.255399683908046</v>
+        <v>0.2553341436781609</v>
       </c>
       <c r="AZ29">
-        <v>0.4494770454416989</v>
+        <v>0.4494344833311931</v>
       </c>
       <c r="BA29">
         <v>-0.324</v>
@@ -5812,22 +5812,22 @@
         <v>696</v>
       </c>
       <c r="BG29">
-        <v>0.3029539367816093</v>
+        <v>0.3028628965517242</v>
       </c>
       <c r="BH29">
-        <v>0.5698571880415282</v>
+        <v>0.5697969029489034</v>
       </c>
       <c r="BI29">
-        <v>-0.529</v>
+        <v>-0.53</v>
       </c>
       <c r="BJ29">
         <v>-0.032975</v>
       </c>
       <c r="BK29">
-        <v>0.0205</v>
+        <v>0.0204</v>
       </c>
       <c r="BL29">
-        <v>0.362</v>
+        <v>0.36125</v>
       </c>
       <c r="BM29">
         <v>2.58</v>
@@ -5889,10 +5889,10 @@
         <v>696</v>
       </c>
       <c r="S30">
-        <v>3.164235632183903</v>
+        <v>3.164221264367811</v>
       </c>
       <c r="T30">
-        <v>0.8609573468126508</v>
+        <v>0.8609324323835807</v>
       </c>
       <c r="U30">
         <v>0.471</v>
@@ -5913,10 +5913,10 @@
         <v>696</v>
       </c>
       <c r="AA30">
-        <v>37.00387931034481</v>
+        <v>37.00402298850574</v>
       </c>
       <c r="AB30">
-        <v>3.15991975261509</v>
+        <v>3.159616754747455</v>
       </c>
       <c r="AC30">
         <v>30.3</v>
@@ -5985,13 +5985,13 @@
         <v>696</v>
       </c>
       <c r="AY30">
-        <v>0.2733217212643679</v>
+        <v>0.2732817442528736</v>
       </c>
       <c r="AZ30">
-        <v>0.5234481960994511</v>
+        <v>0.5234509353673631</v>
       </c>
       <c r="BA30">
-        <v>-0.32</v>
+        <v>-0.321</v>
       </c>
       <c r="BB30">
         <v>-0.068675</v>
@@ -6009,10 +6009,10 @@
         <v>696</v>
       </c>
       <c r="BG30">
-        <v>0.3313145818965517</v>
+        <v>0.3311959698275863</v>
       </c>
       <c r="BH30">
-        <v>0.6848958596081549</v>
+        <v>0.684656609046018</v>
       </c>
       <c r="BI30">
         <v>-0.523</v>
@@ -6158,10 +6158,10 @@
         <v>696</v>
       </c>
       <c r="AQ31">
-        <v>1.082765517241381</v>
+        <v>1.082764080459772</v>
       </c>
       <c r="AR31">
-        <v>0.6147860785957403</v>
+        <v>0.614786432616655</v>
       </c>
       <c r="AS31">
         <v>0.047</v>
@@ -6182,10 +6182,10 @@
         <v>696</v>
       </c>
       <c r="AY31">
-        <v>0.3383656178160921</v>
+        <v>0.338289872126437</v>
       </c>
       <c r="AZ31">
-        <v>0.6499612651865811</v>
+        <v>0.6498623923432716</v>
       </c>
       <c r="BA31">
         <v>-0.315</v>
@@ -6194,7 +6194,7 @@
         <v>-0.07114999999999999</v>
       </c>
       <c r="BC31">
-        <v>0.03095</v>
+        <v>0.0309</v>
       </c>
       <c r="BD31">
         <v>0.58575</v>
@@ -6206,13 +6206,13 @@
         <v>696</v>
       </c>
       <c r="BG31">
-        <v>0.4052588359195404</v>
+        <v>0.4051917936781609</v>
       </c>
       <c r="BH31">
-        <v>0.8407365345614345</v>
+        <v>0.8407258526705141</v>
       </c>
       <c r="BI31">
-        <v>-0.513</v>
+        <v>-0.514</v>
       </c>
       <c r="BJ31">
         <v>-0.0378</v>
@@ -6307,10 +6307,10 @@
         <v>696</v>
       </c>
       <c r="AA32">
-        <v>36.76149425287358</v>
+        <v>36.7616379310345</v>
       </c>
       <c r="AB32">
-        <v>3.279083054401755</v>
+        <v>3.278858753193512</v>
       </c>
       <c r="AC32">
         <v>30.3</v>
@@ -6331,10 +6331,10 @@
         <v>696</v>
       </c>
       <c r="AI32">
-        <v>101.8205459770116</v>
+        <v>101.8204022988507</v>
       </c>
       <c r="AJ32">
-        <v>27.23067821866072</v>
+        <v>27.23078955326195</v>
       </c>
       <c r="AK32">
         <v>55.3</v>
@@ -6379,10 +6379,10 @@
         <v>696</v>
       </c>
       <c r="AY32">
-        <v>0.3871414755747128</v>
+        <v>0.3871146149425287</v>
       </c>
       <c r="AZ32">
-        <v>0.7089704771904112</v>
+        <v>0.7089681278223162</v>
       </c>
       <c r="BA32">
         <v>-0.308</v>
@@ -6403,13 +6403,13 @@
         <v>696</v>
       </c>
       <c r="BG32">
-        <v>0.4540986839080454</v>
+        <v>0.4540517571839075</v>
       </c>
       <c r="BH32">
-        <v>0.90370572142169</v>
+        <v>0.9036945412094819</v>
       </c>
       <c r="BI32">
-        <v>-0.501</v>
+        <v>-0.502</v>
       </c>
       <c r="BJ32">
         <v>-0.035175</v>
@@ -6418,7 +6418,7 @@
         <v>0.02085</v>
       </c>
       <c r="BL32">
-        <v>0.48075</v>
+        <v>0.4805</v>
       </c>
       <c r="BM32">
         <v>4.43</v>
@@ -6528,10 +6528,10 @@
         <v>696</v>
       </c>
       <c r="AI33">
-        <v>101.3079022988505</v>
+        <v>101.3063218390804</v>
       </c>
       <c r="AJ33">
-        <v>27.08573880875948</v>
+        <v>27.08556471798132</v>
       </c>
       <c r="AK33">
         <v>54.9</v>
@@ -6576,10 +6576,10 @@
         <v>696</v>
       </c>
       <c r="AY33">
-        <v>0.4088531867816092</v>
+        <v>0.408769695402299</v>
       </c>
       <c r="AZ33">
-        <v>0.7392404000158844</v>
+        <v>0.739200837325242</v>
       </c>
       <c r="BA33">
         <v>-0.303</v>
@@ -6588,7 +6588,7 @@
         <v>-0.06755</v>
       </c>
       <c r="BC33">
-        <v>0.0395</v>
+        <v>0.03945</v>
       </c>
       <c r="BD33">
         <v>0.75525</v>
@@ -6600,10 +6600,10 @@
         <v>696</v>
       </c>
       <c r="BG33">
-        <v>0.4739778117816094</v>
+        <v>0.4739046522988506</v>
       </c>
       <c r="BH33">
-        <v>0.9320542013003632</v>
+        <v>0.9319953288127018</v>
       </c>
       <c r="BI33">
         <v>-0.483</v>
@@ -6612,10 +6612,10 @@
         <v>-0.03772499999999999</v>
       </c>
       <c r="BK33">
-        <v>0.0278</v>
+        <v>0.02775</v>
       </c>
       <c r="BL33">
-        <v>0.508</v>
+        <v>0.50775</v>
       </c>
       <c r="BM33">
         <v>4.53</v>
@@ -6677,10 +6677,10 @@
         <v>696</v>
       </c>
       <c r="S34">
-        <v>2.938080459770109</v>
+        <v>2.938066091954017</v>
       </c>
       <c r="T34">
-        <v>0.8623979931289738</v>
+        <v>0.8623728507757336</v>
       </c>
       <c r="U34">
         <v>0.414</v>
@@ -6701,10 +6701,10 @@
         <v>696</v>
       </c>
       <c r="AA34">
-        <v>36.64137931034484</v>
+        <v>36.64152298850576</v>
       </c>
       <c r="AB34">
-        <v>3.303969331964836</v>
+        <v>3.303760661988243</v>
       </c>
       <c r="AC34">
         <v>30.2</v>
@@ -6725,10 +6725,10 @@
         <v>696</v>
       </c>
       <c r="AI34">
-        <v>100.8827586206896</v>
+        <v>100.8826149425287</v>
       </c>
       <c r="AJ34">
-        <v>26.88824976989797</v>
+        <v>26.88835910944134</v>
       </c>
       <c r="AK34">
         <v>54.7</v>
@@ -6773,10 +6773,10 @@
         <v>696</v>
       </c>
       <c r="AY34">
-        <v>0.417081778735632</v>
+        <v>0.4170491379310345</v>
       </c>
       <c r="AZ34">
-        <v>0.7479590292418948</v>
+        <v>0.7479608904611948</v>
       </c>
       <c r="BA34">
         <v>-0.3</v>
@@ -6785,7 +6785,7 @@
         <v>-0.06447499999999999</v>
       </c>
       <c r="BC34">
-        <v>0.04475</v>
+        <v>0.0447</v>
       </c>
       <c r="BD34">
         <v>0.77625</v>
@@ -6797,19 +6797,19 @@
         <v>696</v>
       </c>
       <c r="BG34">
-        <v>0.4785374209770112</v>
+        <v>0.4785011939655172</v>
       </c>
       <c r="BH34">
-        <v>0.933792625841532</v>
+        <v>0.9337994124446743</v>
       </c>
       <c r="BI34">
-        <v>-0.472</v>
+        <v>-0.473</v>
       </c>
       <c r="BJ34">
         <v>-0.03565</v>
       </c>
       <c r="BK34">
-        <v>0.0364</v>
+        <v>0.03635</v>
       </c>
       <c r="BL34">
         <v>0.52225</v>
@@ -6898,10 +6898,10 @@
         <v>696</v>
       </c>
       <c r="AA35">
-        <v>36.61522988505748</v>
+        <v>36.61508620689656</v>
       </c>
       <c r="AB35">
-        <v>3.295481660021379</v>
+        <v>3.295305489016004</v>
       </c>
       <c r="AC35">
         <v>30.2</v>
@@ -6946,10 +6946,10 @@
         <v>696</v>
       </c>
       <c r="AQ35">
-        <v>1.063188218390807</v>
+        <v>1.063173850574715</v>
       </c>
       <c r="AR35">
-        <v>0.6026970690017469</v>
+        <v>0.6026955931647916</v>
       </c>
       <c r="AS35">
         <v>0.0461</v>
@@ -6970,10 +6970,10 @@
         <v>696</v>
       </c>
       <c r="AY35">
-        <v>0.4154950244252874</v>
+        <v>0.4154636135057471</v>
       </c>
       <c r="AZ35">
-        <v>0.7404408873475499</v>
+        <v>0.7404416329581632</v>
       </c>
       <c r="BA35">
         <v>-0.294</v>
@@ -6994,10 +6994,10 @@
         <v>696</v>
       </c>
       <c r="BG35">
-        <v>0.4739447021551728</v>
+        <v>0.4738592382183909</v>
       </c>
       <c r="BH35">
-        <v>0.9197546713931471</v>
+        <v>0.9196538618954225</v>
       </c>
       <c r="BI35">
         <v>-0.47</v>
@@ -7074,7 +7074,7 @@
         <v>2.910337643678156</v>
       </c>
       <c r="T36">
-        <v>0.8578683517033917</v>
+        <v>0.8578361481400356</v>
       </c>
       <c r="U36">
         <v>0.41</v>
@@ -7095,10 +7095,10 @@
         <v>696</v>
       </c>
       <c r="AA36">
-        <v>36.64971264367819</v>
+        <v>36.6498563218391</v>
       </c>
       <c r="AB36">
-        <v>3.269928374136629</v>
+        <v>3.269681960560044</v>
       </c>
       <c r="AC36">
         <v>30.2</v>
@@ -7119,10 +7119,10 @@
         <v>696</v>
       </c>
       <c r="AI36">
-        <v>100.5841954022989</v>
+        <v>100.5839080459771</v>
       </c>
       <c r="AJ36">
-        <v>26.87545338147068</v>
+        <v>26.87558598377698</v>
       </c>
       <c r="AK36">
         <v>54.5</v>
@@ -7167,10 +7167,10 @@
         <v>696</v>
       </c>
       <c r="AY36">
-        <v>0.3879603571839082</v>
+        <v>0.3879241308908049</v>
       </c>
       <c r="AZ36">
-        <v>0.7126629371683587</v>
+        <v>0.7126298515202107</v>
       </c>
       <c r="BA36">
         <v>-0.286</v>
@@ -7179,7 +7179,7 @@
         <v>-0.046475</v>
       </c>
       <c r="BC36">
-        <v>0.05635</v>
+        <v>0.0563</v>
       </c>
       <c r="BD36">
         <v>0.66125</v>
@@ -7191,19 +7191,19 @@
         <v>696</v>
       </c>
       <c r="BG36">
-        <v>0.4401164946839078</v>
+        <v>0.440001074137931</v>
       </c>
       <c r="BH36">
-        <v>0.8792228907767974</v>
+        <v>0.8790706124132386</v>
       </c>
       <c r="BI36">
-        <v>-0.465</v>
+        <v>-0.466</v>
       </c>
       <c r="BJ36">
         <v>-0.025775</v>
       </c>
       <c r="BK36">
-        <v>0.04235</v>
+        <v>0.04225</v>
       </c>
       <c r="BL36">
         <v>0.5175000000000001</v>
@@ -7268,10 +7268,10 @@
         <v>696</v>
       </c>
       <c r="S37">
-        <v>2.904860632183904</v>
+        <v>2.904846264367813</v>
       </c>
       <c r="T37">
-        <v>0.8555748015108434</v>
+        <v>0.8555714355723424</v>
       </c>
       <c r="U37">
         <v>0.411</v>
@@ -7364,13 +7364,13 @@
         <v>696</v>
       </c>
       <c r="AY37">
-        <v>0.3843769899425287</v>
+        <v>0.3843316681034484</v>
       </c>
       <c r="AZ37">
-        <v>0.7067198187767019</v>
+        <v>0.7067248955576588</v>
       </c>
       <c r="BA37">
-        <v>-0.295</v>
+        <v>-0.296</v>
       </c>
       <c r="BB37">
         <v>-0.044175</v>
@@ -7388,13 +7388,13 @@
         <v>696</v>
       </c>
       <c r="BG37">
-        <v>0.4402445617816094</v>
+        <v>0.4401475445402301</v>
       </c>
       <c r="BH37">
-        <v>0.8788283438132546</v>
+        <v>0.8786743347847678</v>
       </c>
       <c r="BI37">
-        <v>-0.481</v>
+        <v>-0.482</v>
       </c>
       <c r="BJ37">
         <v>-0.02655</v>
@@ -7403,7 +7403,7 @@
         <v>0.03275</v>
       </c>
       <c r="BL37">
-        <v>0.48325</v>
+        <v>0.4825</v>
       </c>
       <c r="BM37">
         <v>4.47</v>
@@ -7465,10 +7465,10 @@
         <v>696</v>
       </c>
       <c r="S38">
-        <v>2.874152298850579</v>
+        <v>2.874109195402303</v>
       </c>
       <c r="T38">
-        <v>0.8552342418462682</v>
+        <v>0.8551995397609904</v>
       </c>
       <c r="U38">
         <v>0.404</v>
@@ -7489,10 +7489,10 @@
         <v>696</v>
       </c>
       <c r="AA38">
-        <v>36.5972701149425</v>
+        <v>36.59741379310341</v>
       </c>
       <c r="AB38">
-        <v>3.26860910581935</v>
+        <v>3.268347292032268</v>
       </c>
       <c r="AC38">
         <v>30.2</v>
@@ -7537,10 +7537,10 @@
         <v>696</v>
       </c>
       <c r="AQ38">
-        <v>1.059081465517242</v>
+        <v>1.059078591954024</v>
       </c>
       <c r="AR38">
-        <v>0.6005380168761452</v>
+        <v>0.6005389372972422</v>
       </c>
       <c r="AS38">
         <v>0.0458</v>
@@ -7561,10 +7561,10 @@
         <v>696</v>
       </c>
       <c r="AY38">
-        <v>0.399375920977011</v>
+        <v>0.3993215732758618</v>
       </c>
       <c r="AZ38">
-        <v>0.7194265369848227</v>
+        <v>0.7194042477611017</v>
       </c>
       <c r="BA38">
         <v>-0.312</v>
@@ -7585,10 +7585,10 @@
         <v>696</v>
       </c>
       <c r="BG38">
-        <v>0.4545942587643678</v>
+        <v>0.4545489718390803</v>
       </c>
       <c r="BH38">
-        <v>0.8914654413207567</v>
+        <v>0.8914717833678026</v>
       </c>
       <c r="BI38">
         <v>-0.508</v>
@@ -7597,7 +7597,7 @@
         <v>-0.0294</v>
       </c>
       <c r="BK38">
-        <v>0.0333</v>
+        <v>0.03325</v>
       </c>
       <c r="BL38">
         <v>0.519</v>
@@ -7686,10 +7686,10 @@
         <v>696</v>
       </c>
       <c r="AA39">
-        <v>36.55660919540227</v>
+        <v>36.55675287356318</v>
       </c>
       <c r="AB39">
-        <v>3.273747681417187</v>
+        <v>3.273527624759515</v>
       </c>
       <c r="AC39">
         <v>30.3</v>
@@ -7758,10 +7758,10 @@
         <v>696</v>
       </c>
       <c r="AY39">
-        <v>0.404019752873563</v>
+        <v>0.4039826522988503</v>
       </c>
       <c r="AZ39">
-        <v>0.7268657147401189</v>
+        <v>0.7268660298813543</v>
       </c>
       <c r="BA39">
         <v>-0.334</v>
@@ -7782,10 +7782,10 @@
         <v>696</v>
       </c>
       <c r="BG39">
-        <v>0.4566950589080453</v>
+        <v>0.4565945952586203</v>
       </c>
       <c r="BH39">
-        <v>0.8958318185257438</v>
+        <v>0.8957259662678466</v>
       </c>
       <c r="BI39">
         <v>-0.545</v>
@@ -7794,7 +7794,7 @@
         <v>-0.029725</v>
       </c>
       <c r="BK39">
-        <v>0.0358</v>
+        <v>0.0357</v>
       </c>
       <c r="BL39">
         <v>0.51775</v>
@@ -7859,10 +7859,10 @@
         <v>696</v>
       </c>
       <c r="S40">
-        <v>2.832581896551733</v>
+        <v>2.832567528735641</v>
       </c>
       <c r="T40">
-        <v>0.8506499921299253</v>
+        <v>0.8506465681600772</v>
       </c>
       <c r="U40">
         <v>0.397</v>
@@ -7883,10 +7883,10 @@
         <v>696</v>
       </c>
       <c r="AA40">
-        <v>36.58635057471262</v>
+        <v>36.58649425287354</v>
       </c>
       <c r="AB40">
-        <v>3.241165153863402</v>
+        <v>3.24104367371545</v>
       </c>
       <c r="AC40">
         <v>30.3</v>
@@ -7907,10 +7907,10 @@
         <v>696</v>
       </c>
       <c r="AI40">
-        <v>99.76451149425289</v>
+        <v>99.76436781609198</v>
       </c>
       <c r="AJ40">
-        <v>26.64305255681473</v>
+        <v>26.64316928459948</v>
       </c>
       <c r="AK40">
         <v>54</v>
@@ -7955,10 +7955,10 @@
         <v>696</v>
       </c>
       <c r="AY40">
-        <v>0.3719128505747124</v>
+        <v>0.3718719094827583</v>
       </c>
       <c r="AZ40">
-        <v>0.7024807023502808</v>
+        <v>0.702453958622411</v>
       </c>
       <c r="BA40">
         <v>-0.359</v>
@@ -7979,10 +7979,10 @@
         <v>696</v>
       </c>
       <c r="BG40">
-        <v>0.4167352257183911</v>
+        <v>0.4166758468390807</v>
       </c>
       <c r="BH40">
-        <v>0.8561084990550825</v>
+        <v>0.8560491020962658</v>
       </c>
       <c r="BI40">
         <v>-0.585</v>
@@ -7991,7 +7991,7 @@
         <v>-0.026625</v>
       </c>
       <c r="BK40">
-        <v>0.03965</v>
+        <v>0.0396</v>
       </c>
       <c r="BL40">
         <v>0.49675</v>
@@ -8056,10 +8056,10 @@
         <v>696</v>
       </c>
       <c r="S41">
-        <v>2.869781609195403</v>
+        <v>2.869752873563219</v>
       </c>
       <c r="T41">
-        <v>0.8505466568896639</v>
+        <v>0.8505187359109828</v>
       </c>
       <c r="U41">
         <v>0.404</v>
@@ -8152,10 +8152,10 @@
         <v>696</v>
       </c>
       <c r="AY41">
-        <v>0.3494025718390807</v>
+        <v>0.3493584339080462</v>
       </c>
       <c r="AZ41">
-        <v>0.6754516710031861</v>
+        <v>0.6754473125086015</v>
       </c>
       <c r="BA41">
         <v>-0.384</v>
@@ -8164,7 +8164,7 @@
         <v>-0.0241</v>
       </c>
       <c r="BC41">
-        <v>0.07405</v>
+        <v>0.074</v>
       </c>
       <c r="BD41">
         <v>0.54825</v>
@@ -8176,10 +8176,10 @@
         <v>696</v>
       </c>
       <c r="BG41">
-        <v>0.3932507686781602</v>
+        <v>0.3931884109195397</v>
       </c>
       <c r="BH41">
-        <v>0.8296289947943746</v>
+        <v>0.8296098619516051</v>
       </c>
       <c r="BI41">
         <v>-0.627</v>
@@ -8191,7 +8191,7 @@
         <v>0.0461</v>
       </c>
       <c r="BL41">
-        <v>0.4305</v>
+        <v>0.42975</v>
       </c>
       <c r="BM41">
         <v>4.41</v>
@@ -8301,10 +8301,10 @@
         <v>696</v>
       </c>
       <c r="AI42">
-        <v>100.2527298850575</v>
+        <v>100.2525862068966</v>
       </c>
       <c r="AJ42">
-        <v>26.92262974779774</v>
+        <v>26.92267144817217</v>
       </c>
       <c r="AK42">
         <v>54.3</v>
@@ -8349,13 +8349,13 @@
         <v>696</v>
       </c>
       <c r="AY42">
-        <v>0.3472047870402295</v>
+        <v>0.34717045512931</v>
       </c>
       <c r="AZ42">
-        <v>0.6593923453359246</v>
+        <v>0.659390457757221</v>
       </c>
       <c r="BA42">
-        <v>-0.409</v>
+        <v>-0.41</v>
       </c>
       <c r="BB42">
         <v>-0.0241</v>
@@ -8364,7 +8364,7 @@
         <v>0.07835</v>
       </c>
       <c r="BD42">
-        <v>0.5545</v>
+        <v>0.5537500000000001</v>
       </c>
       <c r="BE42">
         <v>3.48</v>
@@ -8373,22 +8373,22 @@
         <v>696</v>
       </c>
       <c r="BG42">
-        <v>0.3934949348706892</v>
+        <v>0.3934355691810342</v>
       </c>
       <c r="BH42">
-        <v>0.816115797276559</v>
+        <v>0.8161012199757361</v>
       </c>
       <c r="BI42">
-        <v>-0.668</v>
+        <v>-0.669</v>
       </c>
       <c r="BJ42">
         <v>-0.016925</v>
       </c>
       <c r="BK42">
-        <v>0.0475</v>
+        <v>0.04745000000000001</v>
       </c>
       <c r="BL42">
-        <v>0.418</v>
+        <v>0.41725</v>
       </c>
       <c r="BM42">
         <v>4.3</v>
@@ -8450,10 +8450,10 @@
         <v>696</v>
       </c>
       <c r="S43">
-        <v>2.904971264367811</v>
+        <v>2.904956896551719</v>
       </c>
       <c r="T43">
-        <v>0.8522132703530739</v>
+        <v>0.8522174906541344</v>
       </c>
       <c r="U43">
         <v>0.414</v>
@@ -8501,7 +8501,7 @@
         <v>100.4594827586206</v>
       </c>
       <c r="AJ43">
-        <v>27.02794070980347</v>
+        <v>27.02792154497694</v>
       </c>
       <c r="AK43">
         <v>54.4</v>
@@ -8546,19 +8546,19 @@
         <v>696</v>
       </c>
       <c r="AY43">
-        <v>0.3475685297270119</v>
+        <v>0.3475189376724141</v>
       </c>
       <c r="AZ43">
-        <v>0.6739605348165696</v>
+        <v>0.6739552655866199</v>
       </c>
       <c r="BA43">
         <v>-0.432</v>
       </c>
       <c r="BB43">
-        <v>-0.01755</v>
+        <v>-0.017525</v>
       </c>
       <c r="BC43">
-        <v>0.0796</v>
+        <v>0.07955</v>
       </c>
       <c r="BD43">
         <v>0.53925</v>
@@ -8570,13 +8570,13 @@
         <v>696</v>
       </c>
       <c r="BG43">
-        <v>0.3925542485201146</v>
+        <v>0.3924868403591951</v>
       </c>
       <c r="BH43">
-        <v>0.8359760031533136</v>
+        <v>0.8359151965458511</v>
       </c>
       <c r="BI43">
-        <v>-0.705</v>
+        <v>-0.706</v>
       </c>
       <c r="BJ43">
         <v>-0.014925</v>
@@ -8623,13 +8623,13 @@
         <v>696</v>
       </c>
       <c r="K44">
-        <v>37.01264367816088</v>
+        <v>37.01278735632179</v>
       </c>
       <c r="L44">
-        <v>2.854225376054336</v>
+        <v>2.853869313965241</v>
       </c>
       <c r="M44">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="N44">
         <v>35.3</v>
@@ -8671,10 +8671,10 @@
         <v>696</v>
       </c>
       <c r="AA44">
-        <v>36.64195402298847</v>
+        <v>36.6420977011494</v>
       </c>
       <c r="AB44">
-        <v>3.220481876121928</v>
+        <v>3.220290111010785</v>
       </c>
       <c r="AC44">
         <v>30.4</v>
@@ -8695,10 +8695,10 @@
         <v>696</v>
       </c>
       <c r="AI44">
-        <v>100.3307471264367</v>
+        <v>100.3306034482758</v>
       </c>
       <c r="AJ44">
-        <v>26.94441072061676</v>
+        <v>26.9444186275172</v>
       </c>
       <c r="AK44">
         <v>54.3</v>
@@ -8743,16 +8743,16 @@
         <v>696</v>
       </c>
       <c r="AY44">
-        <v>0.3653860402298851</v>
+        <v>0.3653511422413793</v>
       </c>
       <c r="AZ44">
-        <v>0.6915491830339384</v>
+        <v>0.6915473304169686</v>
       </c>
       <c r="BA44">
         <v>-0.454</v>
       </c>
       <c r="BB44">
-        <v>-0.026</v>
+        <v>-0.026075</v>
       </c>
       <c r="BC44">
         <v>0.06850000000000001</v>
@@ -8767,13 +8767,13 @@
         <v>696</v>
       </c>
       <c r="BG44">
-        <v>0.4162946221264368</v>
+        <v>0.4162293505747126</v>
       </c>
       <c r="BH44">
-        <v>0.8627074824520345</v>
+        <v>0.8626437093565711</v>
       </c>
       <c r="BI44">
-        <v>-0.741</v>
+        <v>-0.742</v>
       </c>
       <c r="BJ44">
         <v>-0.019725</v>
@@ -8782,7 +8782,7 @@
         <v>0.04525</v>
       </c>
       <c r="BL44">
-        <v>0.42375</v>
+        <v>0.4235</v>
       </c>
       <c r="BM44">
         <v>4.45</v>
@@ -8892,10 +8892,10 @@
         <v>696</v>
       </c>
       <c r="AI45">
-        <v>99.90991379310347</v>
+        <v>99.90977011494256</v>
       </c>
       <c r="AJ45">
-        <v>26.67155576989844</v>
+        <v>26.67158630299854</v>
       </c>
       <c r="AK45">
         <v>54.1</v>
@@ -8940,22 +8940,22 @@
         <v>696</v>
       </c>
       <c r="AY45">
-        <v>0.3899790887931033</v>
+        <v>0.3898971044540226</v>
       </c>
       <c r="AZ45">
-        <v>0.7038730095361942</v>
+        <v>0.7037512998971375</v>
       </c>
       <c r="BA45">
         <v>-0.463</v>
       </c>
       <c r="BB45">
-        <v>-0.03285</v>
+        <v>-0.032925</v>
       </c>
       <c r="BC45">
         <v>0.05605</v>
       </c>
       <c r="BD45">
-        <v>0.6929999999999999</v>
+        <v>0.6922499999999999</v>
       </c>
       <c r="BE45">
         <v>3.49</v>
@@ -8964,10 +8964,10 @@
         <v>696</v>
       </c>
       <c r="BG45">
-        <v>0.4390284304597707</v>
+        <v>0.4389522787356327</v>
       </c>
       <c r="BH45">
-        <v>0.8728300751257332</v>
+        <v>0.872779357378786</v>
       </c>
       <c r="BI45">
         <v>-0.757</v>
@@ -8976,10 +8976,10 @@
         <v>-0.02195</v>
       </c>
       <c r="BK45">
-        <v>0.04165</v>
+        <v>0.0416</v>
       </c>
       <c r="BL45">
-        <v>0.4865</v>
+        <v>0.48575</v>
       </c>
       <c r="BM45">
         <v>4.32</v>
@@ -9041,10 +9041,10 @@
         <v>696</v>
       </c>
       <c r="S46">
-        <v>2.851044540229888</v>
+        <v>2.85106034482759</v>
       </c>
       <c r="T46">
-        <v>0.8522593718242323</v>
+        <v>0.8522316767673193</v>
       </c>
       <c r="U46">
         <v>0.401</v>
@@ -9065,10 +9065,10 @@
         <v>696</v>
       </c>
       <c r="AA46">
-        <v>36.59655172413792</v>
+        <v>36.59669540229884</v>
       </c>
       <c r="AB46">
-        <v>3.201054620310754</v>
+        <v>3.20098060501863</v>
       </c>
       <c r="AC46">
         <v>30.4</v>
@@ -9089,10 +9089,10 @@
         <v>696</v>
       </c>
       <c r="AI46">
-        <v>99.8803160919541</v>
+        <v>99.88017241379319</v>
       </c>
       <c r="AJ46">
-        <v>26.58231900961087</v>
+        <v>26.5823630169959</v>
       </c>
       <c r="AK46">
         <v>54.1</v>
@@ -9137,19 +9137,19 @@
         <v>696</v>
       </c>
       <c r="AY46">
-        <v>0.3797855877873563</v>
+        <v>0.3797581597701151</v>
       </c>
       <c r="AZ46">
-        <v>0.6295459923644373</v>
+        <v>0.6295508420618825</v>
       </c>
       <c r="BA46">
         <v>-0.467</v>
       </c>
       <c r="BB46">
-        <v>-0.021025</v>
+        <v>-0.0211</v>
       </c>
       <c r="BC46">
-        <v>0.0643</v>
+        <v>0.06420000000000001</v>
       </c>
       <c r="BD46">
         <v>0.73675</v>
@@ -9161,10 +9161,10 @@
         <v>696</v>
       </c>
       <c r="BG46">
-        <v>0.4231047333333329</v>
+        <v>0.4230509978448272</v>
       </c>
       <c r="BH46">
-        <v>0.7946172927555656</v>
+        <v>0.7946153612022712</v>
       </c>
       <c r="BI46">
         <v>-0.764</v>
@@ -9173,7 +9173,7 @@
         <v>-0.015525</v>
       </c>
       <c r="BK46">
-        <v>0.0557</v>
+        <v>0.0555</v>
       </c>
       <c r="BL46">
         <v>0.4732499999999999</v>
@@ -9214,13 +9214,13 @@
         <v>696</v>
       </c>
       <c r="K47">
-        <v>37.0389367816092</v>
+        <v>37.0441091954023</v>
       </c>
       <c r="L47">
-        <v>2.863708621591763</v>
+        <v>2.863120963453794</v>
       </c>
       <c r="M47">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="N47">
         <v>35.3</v>
@@ -9229,7 +9229,7 @@
         <v>37.45</v>
       </c>
       <c r="P47">
-        <v>39.2</v>
+        <v>39.225</v>
       </c>
       <c r="Q47">
         <v>40.9</v>
@@ -9238,13 +9238,13 @@
         <v>696</v>
       </c>
       <c r="S47">
-        <v>2.917176724137925</v>
+        <v>2.922471264367811</v>
       </c>
       <c r="T47">
-        <v>0.852864098296142</v>
+        <v>0.8528395696420142</v>
       </c>
       <c r="U47">
-        <v>0.388</v>
+        <v>0.413</v>
       </c>
       <c r="V47">
         <v>2.38</v>
@@ -9286,10 +9286,10 @@
         <v>696</v>
       </c>
       <c r="AI47">
-        <v>100.5395114942528</v>
+        <v>100.5540229885057</v>
       </c>
       <c r="AJ47">
-        <v>26.89154405443318</v>
+        <v>26.892341953328</v>
       </c>
       <c r="AK47">
         <v>54.5</v>
@@ -9310,10 +9310,10 @@
         <v>696</v>
       </c>
       <c r="AQ47">
-        <v>1.062692097701152</v>
+        <v>1.062866235632186</v>
       </c>
       <c r="AR47">
-        <v>0.6034544101518425</v>
+        <v>0.6035592563358516</v>
       </c>
       <c r="AS47">
         <v>0.0458</v>
@@ -9334,22 +9334,22 @@
         <v>696</v>
       </c>
       <c r="AY47">
-        <v>0.3350873678160921</v>
+        <v>0.3351010287356324</v>
       </c>
       <c r="AZ47">
-        <v>0.4930296388121742</v>
+        <v>0.4930719450302345</v>
       </c>
       <c r="BA47">
         <v>-0.473</v>
       </c>
       <c r="BB47">
-        <v>-0.00522</v>
+        <v>-0.0052375</v>
       </c>
       <c r="BC47">
         <v>0.09015000000000001</v>
       </c>
       <c r="BD47">
-        <v>0.743</v>
+        <v>0.74325</v>
       </c>
       <c r="BE47">
         <v>2.12</v>
@@ -9358,10 +9358,10 @@
         <v>696</v>
       </c>
       <c r="BG47">
-        <v>0.3654928462643675</v>
+        <v>0.3654918563218387</v>
       </c>
       <c r="BH47">
-        <v>0.6235713148761857</v>
+        <v>0.6236758486430162</v>
       </c>
       <c r="BI47">
         <v>-0.774</v>
@@ -9370,7 +9370,7 @@
         <v>-0.00385</v>
       </c>
       <c r="BK47">
-        <v>0.0801</v>
+        <v>0.07994999999999999</v>
       </c>
       <c r="BL47">
         <v>0.44725</v>
@@ -9459,10 +9459,10 @@
         <v>696</v>
       </c>
       <c r="AA48">
-        <v>36.7498563218391</v>
+        <v>36.75000000000002</v>
       </c>
       <c r="AB48">
-        <v>3.093376536503933</v>
+        <v>3.093297465267947</v>
       </c>
       <c r="AC48">
         <v>30.5</v>
@@ -9483,10 +9483,10 @@
         <v>696</v>
       </c>
       <c r="AI48">
-        <v>100.7456896551724</v>
+        <v>100.7455459770115</v>
       </c>
       <c r="AJ48">
-        <v>27.09831731931115</v>
+        <v>27.09845322492586</v>
       </c>
       <c r="AK48">
         <v>54.6</v>
@@ -9531,19 +9531,19 @@
         <v>696</v>
       </c>
       <c r="AY48">
-        <v>0.305418645545977</v>
+        <v>0.3053756441091952</v>
       </c>
       <c r="AZ48">
-        <v>0.4700489307315613</v>
+        <v>0.4700395541101471</v>
       </c>
       <c r="BA48">
-        <v>-0.486</v>
+        <v>-0.487</v>
       </c>
       <c r="BB48">
         <v>-0.012475</v>
       </c>
       <c r="BC48">
-        <v>0.0779</v>
+        <v>0.07785</v>
       </c>
       <c r="BD48">
         <v>0.6835</v>
@@ -9555,13 +9555,13 @@
         <v>696</v>
       </c>
       <c r="BG48">
-        <v>0.3360525482758618</v>
+        <v>0.3360035683908044</v>
       </c>
       <c r="BH48">
-        <v>0.6003998536943256</v>
+        <v>0.6003649862665281</v>
       </c>
       <c r="BI48">
-        <v>-0.795</v>
+        <v>-0.796</v>
       </c>
       <c r="BJ48">
         <v>-0.0107</v>
@@ -9680,10 +9680,10 @@
         <v>696</v>
       </c>
       <c r="AI49">
-        <v>100.3885057471264</v>
+        <v>100.3886494252873</v>
       </c>
       <c r="AJ49">
-        <v>26.99261684414705</v>
+        <v>26.99260970882121</v>
       </c>
       <c r="AK49">
         <v>54.3</v>
@@ -9728,19 +9728,19 @@
         <v>696</v>
       </c>
       <c r="AY49">
-        <v>0.3043868362068964</v>
+        <v>0.3043146939655171</v>
       </c>
       <c r="AZ49">
-        <v>0.5014425619771481</v>
+        <v>0.5013831744729557</v>
       </c>
       <c r="BA49">
-        <v>-0.495</v>
+        <v>-0.496</v>
       </c>
       <c r="BB49">
         <v>-0.0249</v>
       </c>
       <c r="BC49">
-        <v>0.05875</v>
+        <v>0.05864999999999999</v>
       </c>
       <c r="BD49">
         <v>0.66725</v>
@@ -9752,19 +9752,19 @@
         <v>696</v>
       </c>
       <c r="BG49">
-        <v>0.3367924281609197</v>
+        <v>0.3367361781609196</v>
       </c>
       <c r="BH49">
-        <v>0.6311218207747926</v>
+        <v>0.6311134404857347</v>
       </c>
       <c r="BI49">
-        <v>-0.8100000000000001</v>
+        <v>-0.8110000000000001</v>
       </c>
       <c r="BJ49">
         <v>-0.0192</v>
       </c>
       <c r="BK49">
-        <v>0.0496</v>
+        <v>0.04955</v>
       </c>
       <c r="BL49">
         <v>0.37975</v>
@@ -9829,10 +9829,10 @@
         <v>696</v>
       </c>
       <c r="S50">
-        <v>2.825933908045983</v>
+        <v>2.825919540229891</v>
       </c>
       <c r="T50">
-        <v>0.843546972554667</v>
+        <v>0.8435437475013161</v>
       </c>
       <c r="U50">
         <v>0.4</v>
@@ -9853,10 +9853,10 @@
         <v>696</v>
       </c>
       <c r="AA50">
-        <v>36.60000000000003</v>
+        <v>36.60014367816095</v>
       </c>
       <c r="AB50">
-        <v>3.160935113438253</v>
+        <v>3.160705227205431</v>
       </c>
       <c r="AC50">
         <v>30.4</v>
@@ -9925,10 +9925,10 @@
         <v>696</v>
       </c>
       <c r="AY50">
-        <v>0.3405503136494253</v>
+        <v>0.3404794397988505</v>
       </c>
       <c r="AZ50">
-        <v>0.6090050799907472</v>
+        <v>0.6089554384346239</v>
       </c>
       <c r="BA50">
         <v>-0.499</v>
@@ -9937,7 +9937,7 @@
         <v>-0.0375</v>
       </c>
       <c r="BC50">
-        <v>0.0439</v>
+        <v>0.04380000000000001</v>
       </c>
       <c r="BD50">
         <v>0.6860000000000001</v>
@@ -9949,22 +9949,22 @@
         <v>696</v>
       </c>
       <c r="BG50">
-        <v>0.3794210899425292</v>
+        <v>0.3793615287356327</v>
       </c>
       <c r="BH50">
-        <v>0.7611490249969839</v>
+        <v>0.7611055472789238</v>
       </c>
       <c r="BI50">
-        <v>-0.8159999999999999</v>
+        <v>-0.8169999999999999</v>
       </c>
       <c r="BJ50">
         <v>-0.025725</v>
       </c>
       <c r="BK50">
-        <v>0.03685</v>
+        <v>0.03675</v>
       </c>
       <c r="BL50">
-        <v>0.40325</v>
+        <v>0.4025</v>
       </c>
       <c r="BM50">
         <v>3.73</v>
@@ -10074,10 +10074,10 @@
         <v>696</v>
       </c>
       <c r="AI51">
-        <v>98.89928160919553</v>
+        <v>98.89913793103462</v>
       </c>
       <c r="AJ51">
-        <v>26.29056316843342</v>
+        <v>26.29072433970062</v>
       </c>
       <c r="AK51">
         <v>51.8</v>
@@ -10122,10 +10122,10 @@
         <v>696</v>
       </c>
       <c r="AY51">
-        <v>0.3768432339080462</v>
+        <v>0.3767995218390807</v>
       </c>
       <c r="AZ51">
-        <v>0.7069019016962635</v>
+        <v>0.7068820244422668</v>
       </c>
       <c r="BA51">
         <v>-0.496</v>
@@ -10134,10 +10134,10 @@
         <v>-0.050825</v>
       </c>
       <c r="BC51">
-        <v>0.0348</v>
+        <v>0.03475</v>
       </c>
       <c r="BD51">
-        <v>0.73025</v>
+        <v>0.7295</v>
       </c>
       <c r="BE51">
         <v>3.44</v>
@@ -10146,10 +10146,10 @@
         <v>696</v>
       </c>
       <c r="BG51">
-        <v>0.4172973607758622</v>
+        <v>0.4172197073275865</v>
       </c>
       <c r="BH51">
-        <v>0.865307435763538</v>
+        <v>0.8652753927691464</v>
       </c>
       <c r="BI51">
         <v>-0.8110000000000001</v>
@@ -10158,7 +10158,7 @@
         <v>-0.032725</v>
       </c>
       <c r="BK51">
-        <v>0.029</v>
+        <v>0.02885</v>
       </c>
       <c r="BL51">
         <v>0.45725</v>
@@ -10223,10 +10223,10 @@
         <v>696</v>
       </c>
       <c r="S52">
-        <v>2.682515804597698</v>
+        <v>2.682501436781606</v>
       </c>
       <c r="T52">
-        <v>0.8366732804190187</v>
+        <v>0.8366680783794899</v>
       </c>
       <c r="U52">
         <v>0.377</v>
@@ -10271,10 +10271,10 @@
         <v>696</v>
       </c>
       <c r="AI52">
-        <v>98.20847701149424</v>
+        <v>98.2081896551724</v>
       </c>
       <c r="AJ52">
-        <v>26.0580249030856</v>
+        <v>26.05831267468692</v>
       </c>
       <c r="AK52">
         <v>50</v>
@@ -10319,19 +10319,19 @@
         <v>696</v>
       </c>
       <c r="AY52">
-        <v>0.3503853649425286</v>
+        <v>0.3503460948275863</v>
       </c>
       <c r="AZ52">
-        <v>0.6301138062338856</v>
+        <v>0.63011785299923</v>
       </c>
       <c r="BA52">
-        <v>-0.489</v>
+        <v>-0.49</v>
       </c>
       <c r="BB52">
         <v>-0.0595</v>
       </c>
       <c r="BC52">
-        <v>0.03295</v>
+        <v>0.03285</v>
       </c>
       <c r="BD52">
         <v>0.7484999999999999</v>
@@ -10343,10 +10343,10 @@
         <v>696</v>
       </c>
       <c r="BG52">
-        <v>0.3852026633620686</v>
+        <v>0.3851524936781607</v>
       </c>
       <c r="BH52">
-        <v>0.7844185208668474</v>
+        <v>0.7844267103686333</v>
       </c>
       <c r="BI52">
         <v>-0.8</v>
@@ -10358,7 +10358,7 @@
         <v>0.02765</v>
       </c>
       <c r="BL52">
-        <v>0.43625</v>
+        <v>0.4355</v>
       </c>
       <c r="BM52">
         <v>4.19</v>
@@ -10516,10 +10516,10 @@
         <v>696</v>
       </c>
       <c r="AY53">
-        <v>0.3288391479885056</v>
+        <v>0.3287595114942529</v>
       </c>
       <c r="AZ53">
-        <v>0.5854440424784833</v>
+        <v>0.5853324142191954</v>
       </c>
       <c r="BA53">
         <v>-0.485</v>
@@ -10540,19 +10540,19 @@
         <v>696</v>
       </c>
       <c r="BG53">
-        <v>0.3580874755747125</v>
+        <v>0.3580395646551723</v>
       </c>
       <c r="BH53">
-        <v>0.7360187999100792</v>
+        <v>0.7360141667406502</v>
       </c>
       <c r="BI53">
-        <v>-0.792</v>
+        <v>-0.793</v>
       </c>
       <c r="BJ53">
         <v>-0.028725</v>
       </c>
       <c r="BK53">
-        <v>0.0319</v>
+        <v>0.03165</v>
       </c>
       <c r="BL53">
         <v>0.39675</v>
@@ -10617,10 +10617,10 @@
         <v>696</v>
       </c>
       <c r="S54">
-        <v>2.623021551724141</v>
+        <v>2.622992816091957</v>
       </c>
       <c r="T54">
-        <v>0.8284468216038384</v>
+        <v>0.8284307736382728</v>
       </c>
       <c r="U54">
         <v>0.372</v>
@@ -10641,10 +10641,10 @@
         <v>696</v>
       </c>
       <c r="AA54">
-        <v>36.43189655172413</v>
+        <v>36.43204022988505</v>
       </c>
       <c r="AB54">
-        <v>3.099002368261707</v>
+        <v>3.098817482251464</v>
       </c>
       <c r="AC54">
         <v>30.4</v>
@@ -10713,10 +10713,10 @@
         <v>696</v>
       </c>
       <c r="AY54">
-        <v>0.3138169797413793</v>
+        <v>0.3137459567528735</v>
       </c>
       <c r="AZ54">
-        <v>0.546737588474014</v>
+        <v>0.5466893069425022</v>
       </c>
       <c r="BA54">
         <v>-0.482</v>
@@ -10725,7 +10725,7 @@
         <v>-0.04625</v>
       </c>
       <c r="BC54">
-        <v>0.0467</v>
+        <v>0.0466</v>
       </c>
       <c r="BD54">
         <v>0.74425</v>
@@ -10737,10 +10737,10 @@
         <v>696</v>
       </c>
       <c r="BG54">
-        <v>0.3372633932471264</v>
+        <v>0.3372042729885059</v>
       </c>
       <c r="BH54">
-        <v>0.6812484449983961</v>
+        <v>0.6812015696390565</v>
       </c>
       <c r="BI54">
         <v>-0.787</v>
@@ -10749,7 +10749,7 @@
         <v>-0.0251</v>
       </c>
       <c r="BK54">
-        <v>0.03325</v>
+        <v>0.0331</v>
       </c>
       <c r="BL54">
         <v>0.3545</v>
@@ -10814,10 +10814,10 @@
         <v>696</v>
       </c>
       <c r="S55">
-        <v>2.633637931034482</v>
+        <v>2.633623563218389</v>
       </c>
       <c r="T55">
-        <v>0.830046151753733</v>
+        <v>0.8300254996287186</v>
       </c>
       <c r="U55">
         <v>0.372</v>
@@ -10910,10 +10910,10 @@
         <v>696</v>
       </c>
       <c r="AY55">
-        <v>0.3221810548850578</v>
+        <v>0.3221307531609199</v>
       </c>
       <c r="AZ55">
-        <v>0.5457429311561577</v>
+        <v>0.5457263949425443</v>
       </c>
       <c r="BA55">
         <v>-0.477</v>
@@ -10934,10 +10934,10 @@
         <v>696</v>
       </c>
       <c r="BG55">
-        <v>0.3450367436781607</v>
+        <v>0.3449584678160917</v>
       </c>
       <c r="BH55">
-        <v>0.6860880219591733</v>
+        <v>0.6860326170791438</v>
       </c>
       <c r="BI55">
         <v>-0.779</v>
@@ -10946,7 +10946,7 @@
         <v>-0.020025</v>
       </c>
       <c r="BK55">
-        <v>0.0365</v>
+        <v>0.0364</v>
       </c>
       <c r="BL55">
         <v>0.341</v>
@@ -11107,10 +11107,10 @@
         <v>696</v>
       </c>
       <c r="AY56">
-        <v>0.2938353893678161</v>
+        <v>0.2937800000000003</v>
       </c>
       <c r="AZ56">
-        <v>0.5721678651226157</v>
+        <v>0.5721521252353117</v>
       </c>
       <c r="BA56">
         <v>-0.479</v>
@@ -11119,7 +11119,7 @@
         <v>-0.090975</v>
       </c>
       <c r="BC56">
-        <v>0.0235</v>
+        <v>0.02335</v>
       </c>
       <c r="BD56">
         <v>0.7102499999999999</v>
@@ -11131,16 +11131,16 @@
         <v>696</v>
       </c>
       <c r="BG56">
-        <v>0.3169415718390802</v>
+        <v>0.3168935502873561</v>
       </c>
       <c r="BH56">
-        <v>0.694769255157313</v>
+        <v>0.6947661939724361</v>
       </c>
       <c r="BI56">
-        <v>-0.781</v>
+        <v>-0.782</v>
       </c>
       <c r="BJ56">
-        <v>-0.049275</v>
+        <v>-0.04925</v>
       </c>
       <c r="BK56">
         <v>0.01695</v>
@@ -11304,10 +11304,10 @@
         <v>696</v>
       </c>
       <c r="AY57">
-        <v>0.3179618402298851</v>
+        <v>0.3178845922413793</v>
       </c>
       <c r="AZ57">
-        <v>0.6164690625965326</v>
+        <v>0.6164164144723764</v>
       </c>
       <c r="BA57">
         <v>-0.474</v>
@@ -11328,10 +11328,10 @@
         <v>696</v>
       </c>
       <c r="BG57">
-        <v>0.3347060780172414</v>
+        <v>0.3346252395114943</v>
       </c>
       <c r="BH57">
-        <v>0.732158992863845</v>
+        <v>0.7320741792876676</v>
       </c>
       <c r="BI57">
         <v>-0.774</v>
@@ -11408,7 +11408,7 @@
         <v>2.437284482758623</v>
       </c>
       <c r="T58">
-        <v>0.8179419828437936</v>
+        <v>0.8179604532774031</v>
       </c>
       <c r="U58">
         <v>0.331</v>
@@ -11501,13 +11501,13 @@
         <v>696</v>
       </c>
       <c r="AY58">
-        <v>0.340514620689655</v>
+        <v>0.3404616178160919</v>
       </c>
       <c r="AZ58">
-        <v>0.6870325919808896</v>
+        <v>0.6870199992890706</v>
       </c>
       <c r="BA58">
-        <v>-0.465</v>
+        <v>-0.466</v>
       </c>
       <c r="BB58">
         <v>-0.07164999999999999</v>
@@ -11525,16 +11525,16 @@
         <v>696</v>
       </c>
       <c r="BG58">
-        <v>0.3556904738505743</v>
+        <v>0.3556183535919537</v>
       </c>
       <c r="BH58">
-        <v>0.7928944126956599</v>
+        <v>0.7928833708183018</v>
       </c>
       <c r="BI58">
         <v>-0.76</v>
       </c>
       <c r="BJ58">
-        <v>-0.03555</v>
+        <v>-0.035575</v>
       </c>
       <c r="BK58">
         <v>0.0234</v>
@@ -11626,10 +11626,10 @@
         <v>696</v>
       </c>
       <c r="AA59">
-        <v>36.1198275862069</v>
+        <v>36.11997126436783</v>
       </c>
       <c r="AB59">
-        <v>3.219992935179331</v>
+        <v>3.219770848324432</v>
       </c>
       <c r="AC59">
         <v>29.9</v>
@@ -11650,10 +11650,10 @@
         <v>696</v>
       </c>
       <c r="AI59">
-        <v>94.87040229885056</v>
+        <v>94.87183908045975</v>
       </c>
       <c r="AJ59">
-        <v>24.91306756835177</v>
+        <v>24.91431670836209</v>
       </c>
       <c r="AK59">
         <v>42</v>
@@ -11698,10 +11698,10 @@
         <v>696</v>
       </c>
       <c r="AY59">
-        <v>0.3715706307471265</v>
+        <v>0.3715047974137931</v>
       </c>
       <c r="AZ59">
-        <v>0.7345842993843996</v>
+        <v>0.7345199535616688</v>
       </c>
       <c r="BA59">
         <v>-0.455</v>
@@ -11710,7 +11710,7 @@
         <v>-0.07345</v>
       </c>
       <c r="BC59">
-        <v>0.03355</v>
+        <v>0.0335</v>
       </c>
       <c r="BD59">
         <v>0.6795</v>
@@ -11722,10 +11722,10 @@
         <v>696</v>
       </c>
       <c r="BG59">
-        <v>0.3887303952586209</v>
+        <v>0.3886835590517244</v>
       </c>
       <c r="BH59">
-        <v>0.8515940780778292</v>
+        <v>0.851580952735198</v>
       </c>
       <c r="BI59">
         <v>-0.742</v>
@@ -11847,10 +11847,10 @@
         <v>696</v>
       </c>
       <c r="AI60">
-        <v>94.9775862068965</v>
+        <v>94.97744252873558</v>
       </c>
       <c r="AJ60">
-        <v>24.97578137261</v>
+        <v>24.97584547787765</v>
       </c>
       <c r="AK60">
         <v>42.1</v>
@@ -11895,10 +11895,10 @@
         <v>696</v>
       </c>
       <c r="AY60">
-        <v>0.3570228094827586</v>
+        <v>0.3569840818965517</v>
       </c>
       <c r="AZ60">
-        <v>0.6510502230833681</v>
+        <v>0.6510343034058608</v>
       </c>
       <c r="BA60">
         <v>-0.434</v>
@@ -11919,10 +11919,10 @@
         <v>696</v>
       </c>
       <c r="BG60">
-        <v>0.3654580902298851</v>
+        <v>0.3653954783045977</v>
       </c>
       <c r="BH60">
-        <v>0.7384461448788486</v>
+        <v>0.7383920768777223</v>
       </c>
       <c r="BI60">
         <v>-0.707</v>
@@ -11931,10 +11931,10 @@
         <v>-0.020475</v>
       </c>
       <c r="BK60">
-        <v>0.0358</v>
+        <v>0.0357</v>
       </c>
       <c r="BL60">
-        <v>0.43275</v>
+        <v>0.4325</v>
       </c>
       <c r="BM60">
         <v>4.06</v>
@@ -11996,10 +11996,10 @@
         <v>696</v>
       </c>
       <c r="S61">
-        <v>2.456556034482757</v>
+        <v>2.456541666666665</v>
       </c>
       <c r="T61">
-        <v>0.8180481893024922</v>
+        <v>0.8180292204167505</v>
       </c>
       <c r="U61">
         <v>0.335</v>
@@ -12092,19 +12092,19 @@
         <v>696</v>
       </c>
       <c r="AY61">
-        <v>0.3257657140804601</v>
+        <v>0.3257152830459774</v>
       </c>
       <c r="AZ61">
-        <v>0.58763179363014</v>
+        <v>0.5875880059575058</v>
       </c>
       <c r="BA61">
         <v>-0.407</v>
       </c>
       <c r="BB61">
-        <v>-0.024825</v>
+        <v>-0.0249</v>
       </c>
       <c r="BC61">
-        <v>0.06725</v>
+        <v>0.0673</v>
       </c>
       <c r="BD61">
         <v>0.6134999999999999</v>
@@ -12116,10 +12116,10 @@
         <v>696</v>
       </c>
       <c r="BG61">
-        <v>0.337848843390805</v>
+        <v>0.3377927212643682</v>
       </c>
       <c r="BH61">
-        <v>0.69234556564673</v>
+        <v>0.6923238224445524</v>
       </c>
       <c r="BI61">
         <v>-0.663</v>
@@ -12128,7 +12128,7 @@
         <v>-0.017025</v>
       </c>
       <c r="BK61">
-        <v>0.0526</v>
+        <v>0.05235</v>
       </c>
       <c r="BL61">
         <v>0.37575</v>
@@ -12193,10 +12193,10 @@
         <v>696</v>
       </c>
       <c r="S62">
-        <v>2.463214080459772</v>
+        <v>2.463228448275864</v>
       </c>
       <c r="T62">
-        <v>0.8152934318408904</v>
+        <v>0.8152699907443147</v>
       </c>
       <c r="U62">
         <v>0.342</v>
@@ -12241,10 +12241,10 @@
         <v>696</v>
       </c>
       <c r="AI62">
-        <v>95.6515804597702</v>
+        <v>95.65287356321846</v>
       </c>
       <c r="AJ62">
-        <v>25.70017378832972</v>
+        <v>25.70096586525521</v>
       </c>
       <c r="AK62">
         <v>42.6</v>
@@ -12265,10 +12265,10 @@
         <v>696</v>
       </c>
       <c r="AQ62">
-        <v>1.011055747126437</v>
+        <v>1.011070114942529</v>
       </c>
       <c r="AR62">
-        <v>0.5730654484663297</v>
+        <v>0.5730713221126149</v>
       </c>
       <c r="AS62">
         <v>0.0435</v>
@@ -12289,10 +12289,10 @@
         <v>696</v>
       </c>
       <c r="AY62">
-        <v>0.3084667550287361</v>
+        <v>0.3084283583333337</v>
       </c>
       <c r="AZ62">
-        <v>0.5695858184468323</v>
+        <v>0.5695851890126606</v>
       </c>
       <c r="BA62">
         <v>-0.387</v>
@@ -12301,7 +12301,7 @@
         <v>-0.02905</v>
       </c>
       <c r="BC62">
-        <v>0.06125</v>
+        <v>0.06115</v>
       </c>
       <c r="BD62">
         <v>0.5705</v>
@@ -12313,10 +12313,10 @@
         <v>696</v>
       </c>
       <c r="BG62">
-        <v>0.3232360908045976</v>
+        <v>0.3231848938218391</v>
       </c>
       <c r="BH62">
-        <v>0.6776227190651771</v>
+        <v>0.6775981940128841</v>
       </c>
       <c r="BI62">
         <v>-0.631</v>
@@ -12325,7 +12325,7 @@
         <v>-0.02015</v>
       </c>
       <c r="BK62">
-        <v>0.0547</v>
+        <v>0.0546</v>
       </c>
       <c r="BL62">
         <v>0.338</v>
@@ -12414,10 +12414,10 @@
         <v>696</v>
       </c>
       <c r="AA63">
-        <v>36.26522988505749</v>
+        <v>36.26551724137933</v>
       </c>
       <c r="AB63">
-        <v>3.096212251572728</v>
+        <v>3.095969162607639</v>
       </c>
       <c r="AC63">
         <v>30.2</v>
@@ -12462,10 +12462,10 @@
         <v>696</v>
       </c>
       <c r="AQ63">
-        <v>1.01041566091954</v>
+        <v>1.010414224137931</v>
       </c>
       <c r="AR63">
-        <v>0.5730332096786978</v>
+        <v>0.5730348767232831</v>
       </c>
       <c r="AS63">
         <v>0.0435</v>
@@ -12486,10 +12486,10 @@
         <v>696</v>
       </c>
       <c r="AY63">
-        <v>0.309691507183908</v>
+        <v>0.3096538448275862</v>
       </c>
       <c r="AZ63">
-        <v>0.5963476873251521</v>
+        <v>0.5963451400507691</v>
       </c>
       <c r="BA63">
         <v>-0.364</v>
@@ -12498,7 +12498,7 @@
         <v>-0.03165</v>
       </c>
       <c r="BC63">
-        <v>0.06659999999999999</v>
+        <v>0.0664</v>
       </c>
       <c r="BD63">
         <v>0.55525</v>
@@ -12510,10 +12510,10 @@
         <v>696</v>
       </c>
       <c r="BG63">
-        <v>0.3236369511494253</v>
+        <v>0.3235554942528734</v>
       </c>
       <c r="BH63">
-        <v>0.6928688906821405</v>
+        <v>0.6928269087510153</v>
       </c>
       <c r="BI63">
         <v>-0.593</v>
@@ -12522,7 +12522,7 @@
         <v>-0.019825</v>
       </c>
       <c r="BK63">
-        <v>0.05374999999999999</v>
+        <v>0.0537</v>
       </c>
       <c r="BL63">
         <v>0.341</v>
@@ -12611,10 +12611,10 @@
         <v>696</v>
       </c>
       <c r="AA64">
-        <v>36.19022988505748</v>
+        <v>36.19037356321839</v>
       </c>
       <c r="AB64">
-        <v>3.149688476823326</v>
+        <v>3.149458216026105</v>
       </c>
       <c r="AC64">
         <v>30.2</v>
@@ -12659,10 +12659,10 @@
         <v>696</v>
       </c>
       <c r="AQ64">
-        <v>1.006219396551723</v>
+        <v>1.006232327586206</v>
       </c>
       <c r="AR64">
-        <v>0.5699179623004775</v>
+        <v>0.5699306118848991</v>
       </c>
       <c r="AS64">
         <v>0.0433</v>
@@ -12683,10 +12683,10 @@
         <v>696</v>
       </c>
       <c r="AY64">
-        <v>0.3433208376436784</v>
+        <v>0.3432801752873567</v>
       </c>
       <c r="AZ64">
-        <v>0.6680673984039026</v>
+        <v>0.6680660645471461</v>
       </c>
       <c r="BA64">
         <v>-0.349</v>
@@ -12695,7 +12695,7 @@
         <v>-0.04435</v>
       </c>
       <c r="BC64">
-        <v>0.07335</v>
+        <v>0.0732</v>
       </c>
       <c r="BD64">
         <v>0.5874999999999999</v>
@@ -12707,10 +12707,10 @@
         <v>696</v>
       </c>
       <c r="BG64">
-        <v>0.361567977011494</v>
+        <v>0.3615271293103446</v>
       </c>
       <c r="BH64">
-        <v>0.7743888634776114</v>
+        <v>0.7743961605732721</v>
       </c>
       <c r="BI64">
         <v>-0.549</v>
@@ -12832,10 +12832,10 @@
         <v>696</v>
       </c>
       <c r="AI65">
-        <v>94.88103448275859</v>
+        <v>94.88089080459768</v>
       </c>
       <c r="AJ65">
-        <v>25.01896459552038</v>
+        <v>25.0189929536334</v>
       </c>
       <c r="AK65">
         <v>42.2</v>
@@ -12856,10 +12856,10 @@
         <v>696</v>
       </c>
       <c r="AQ65">
-        <v>1.002687212643677</v>
+        <v>1.002688649425286</v>
       </c>
       <c r="AR65">
-        <v>0.5643183420120348</v>
+        <v>0.5643180942108038</v>
       </c>
       <c r="AS65">
         <v>0.0433</v>
@@ -12880,10 +12880,10 @@
         <v>696</v>
       </c>
       <c r="AY65">
-        <v>0.365433922844828</v>
+        <v>0.3653748517241382</v>
       </c>
       <c r="AZ65">
-        <v>0.6671028779288888</v>
+        <v>0.667055620992551</v>
       </c>
       <c r="BA65">
         <v>-0.346</v>
@@ -12892,7 +12892,7 @@
         <v>-0.03455</v>
       </c>
       <c r="BC65">
-        <v>0.08015</v>
+        <v>0.08005</v>
       </c>
       <c r="BD65">
         <v>0.6775</v>
@@ -12904,10 +12904,10 @@
         <v>696</v>
       </c>
       <c r="BG65">
-        <v>0.3804284895114938</v>
+        <v>0.380371160201149</v>
       </c>
       <c r="BH65">
-        <v>0.7702325118700988</v>
+        <v>0.7701731779966513</v>
       </c>
       <c r="BI65">
         <v>-0.536</v>
@@ -12916,10 +12916,10 @@
         <v>-0.020725</v>
       </c>
       <c r="BK65">
-        <v>0.05505</v>
+        <v>0.055</v>
       </c>
       <c r="BL65">
-        <v>0.41925</v>
+        <v>0.4185</v>
       </c>
       <c r="BM65">
         <v>4.1</v>
@@ -13005,10 +13005,10 @@
         <v>696</v>
       </c>
       <c r="AA66">
-        <v>36.10445402298852</v>
+        <v>36.10459770114944</v>
       </c>
       <c r="AB66">
-        <v>3.216266254889901</v>
+        <v>3.216116181228559</v>
       </c>
       <c r="AC66">
         <v>30.1</v>
@@ -13029,10 +13029,10 @@
         <v>696</v>
       </c>
       <c r="AI66">
-        <v>94.77241379310354</v>
+        <v>94.77227011494263</v>
       </c>
       <c r="AJ66">
-        <v>24.66229669341434</v>
+        <v>24.66232541134918</v>
       </c>
       <c r="AK66">
         <v>42.2</v>
@@ -13077,10 +13077,10 @@
         <v>696</v>
       </c>
       <c r="AY66">
-        <v>0.4004094619252873</v>
+        <v>0.4003696386494254</v>
       </c>
       <c r="AZ66">
-        <v>0.7124180502624465</v>
+        <v>0.7124199049483125</v>
       </c>
       <c r="BA66">
         <v>-0.339</v>
@@ -13101,10 +13101,10 @@
         <v>696</v>
       </c>
       <c r="BG66">
-        <v>0.4164198864942528</v>
+        <v>0.4163553505747124</v>
       </c>
       <c r="BH66">
-        <v>0.8266461179960563</v>
+        <v>0.8265305323071513</v>
       </c>
       <c r="BI66">
         <v>-0.525</v>
@@ -13113,10 +13113,10 @@
         <v>-0.017575</v>
       </c>
       <c r="BK66">
-        <v>0.06304999999999999</v>
+        <v>0.063</v>
       </c>
       <c r="BL66">
-        <v>0.45425</v>
+        <v>0.4535</v>
       </c>
       <c r="BM66">
         <v>4.44</v>
@@ -13154,10 +13154,10 @@
         <v>696</v>
       </c>
       <c r="K67">
-        <v>36.50933908045977</v>
+        <v>36.51149425287355</v>
       </c>
       <c r="L67">
-        <v>2.809175432919165</v>
+        <v>2.809385105404834</v>
       </c>
       <c r="M67">
         <v>29.9</v>
@@ -13166,7 +13166,7 @@
         <v>34.8</v>
       </c>
       <c r="O67">
-        <v>36.9</v>
+        <v>36.95</v>
       </c>
       <c r="P67">
         <v>38.625</v>
@@ -13178,22 +13178,22 @@
         <v>696</v>
       </c>
       <c r="S67">
-        <v>2.38703879310345</v>
+        <v>2.389093390804597</v>
       </c>
       <c r="T67">
-        <v>0.8235381501933386</v>
+        <v>0.8236621093642099</v>
       </c>
       <c r="U67">
-        <v>0.312</v>
+        <v>0.313</v>
       </c>
       <c r="V67">
-        <v>1.81</v>
+        <v>1.8175</v>
       </c>
       <c r="W67">
         <v>2.305</v>
       </c>
       <c r="X67">
-        <v>2.945</v>
+        <v>2.9525</v>
       </c>
       <c r="Y67">
         <v>3.84</v>
@@ -13226,10 +13226,10 @@
         <v>696</v>
       </c>
       <c r="AI67">
-        <v>94.60287356321838</v>
+        <v>94.60689655172413</v>
       </c>
       <c r="AJ67">
-        <v>24.23098124637977</v>
+        <v>24.23155938759928</v>
       </c>
       <c r="AK67">
         <v>42.2</v>
@@ -13250,10 +13250,10 @@
         <v>696</v>
       </c>
       <c r="AQ67">
-        <v>0.9991419540229873</v>
+        <v>0.9991765804597696</v>
       </c>
       <c r="AR67">
-        <v>0.5568958243834705</v>
+        <v>0.5569259432166129</v>
       </c>
       <c r="AS67">
         <v>0.0432</v>
@@ -13274,10 +13274,10 @@
         <v>696</v>
       </c>
       <c r="AY67">
-        <v>0.43033708908046</v>
+        <v>0.4303324770114943</v>
       </c>
       <c r="AZ67">
-        <v>0.7426426266902595</v>
+        <v>0.7426976501768952</v>
       </c>
       <c r="BA67">
         <v>-0.339</v>
@@ -13298,10 +13298,10 @@
         <v>696</v>
       </c>
       <c r="BG67">
-        <v>0.446524941091954</v>
+        <v>0.4464882729885056</v>
       </c>
       <c r="BH67">
-        <v>0.8618799860000982</v>
+        <v>0.8618860086654856</v>
       </c>
       <c r="BI67">
         <v>-0.526</v>
@@ -13375,10 +13375,10 @@
         <v>696</v>
       </c>
       <c r="S68">
-        <v>2.383639367816093</v>
+        <v>2.383653735632185</v>
       </c>
       <c r="T68">
-        <v>0.825554303850582</v>
+        <v>0.8255313209944608</v>
       </c>
       <c r="U68">
         <v>0.311</v>
@@ -13399,10 +13399,10 @@
         <v>696</v>
       </c>
       <c r="AA68">
-        <v>36.03333333333332</v>
+        <v>36.03347701149425</v>
       </c>
       <c r="AB68">
-        <v>3.286700181266124</v>
+        <v>3.286508279310181</v>
       </c>
       <c r="AC68">
         <v>29.8</v>
@@ -13423,10 +13423,10 @@
         <v>696</v>
       </c>
       <c r="AI68">
-        <v>94.34928160919542</v>
+        <v>94.34942528735634</v>
       </c>
       <c r="AJ68">
-        <v>23.05855229661101</v>
+        <v>23.05837009252617</v>
       </c>
       <c r="AK68">
         <v>42.2</v>
@@ -13447,10 +13447,10 @@
         <v>696</v>
       </c>
       <c r="AQ68">
-        <v>0.9957137931034473</v>
+        <v>0.9957267241379301</v>
       </c>
       <c r="AR68">
-        <v>0.5464141819414488</v>
+        <v>0.5464611994005251</v>
       </c>
       <c r="AS68">
         <v>0.0432</v>
@@ -13471,10 +13471,10 @@
         <v>696</v>
       </c>
       <c r="AY68">
-        <v>0.4473356709770115</v>
+        <v>0.4472493060344828</v>
       </c>
       <c r="AZ68">
-        <v>0.7542650189154927</v>
+        <v>0.75415253784675</v>
       </c>
       <c r="BA68">
         <v>-0.336</v>
@@ -13495,10 +13495,10 @@
         <v>696</v>
       </c>
       <c r="BG68">
-        <v>0.4623502629310338</v>
+        <v>0.4622798160919536</v>
       </c>
       <c r="BH68">
-        <v>0.8755997643801767</v>
+        <v>0.8755233881208173</v>
       </c>
       <c r="BI68">
         <v>-0.52</v>
@@ -13572,10 +13572,10 @@
         <v>696</v>
       </c>
       <c r="S69">
-        <v>2.413734195402294</v>
+        <v>2.4134382183908</v>
       </c>
       <c r="T69">
-        <v>0.825781680544269</v>
+        <v>0.8257903381055486</v>
       </c>
       <c r="U69">
         <v>0.313</v>
@@ -13596,10 +13596,10 @@
         <v>696</v>
       </c>
       <c r="AA69">
-        <v>36.11221264367815</v>
+        <v>36.11264367816091</v>
       </c>
       <c r="AB69">
-        <v>3.200451000711461</v>
+        <v>3.199939013724655</v>
       </c>
       <c r="AC69">
         <v>30</v>
@@ -13620,10 +13620,10 @@
         <v>696</v>
       </c>
       <c r="AI69">
-        <v>94.80818965517241</v>
+        <v>94.80919540229887</v>
       </c>
       <c r="AJ69">
-        <v>24.26897072451342</v>
+        <v>24.27648123641883</v>
       </c>
       <c r="AK69">
         <v>42.3</v>
@@ -13644,10 +13644,10 @@
         <v>696</v>
       </c>
       <c r="AQ69">
-        <v>1.001470833333334</v>
+        <v>1.001483764367816</v>
       </c>
       <c r="AR69">
-        <v>0.5583545400548648</v>
+        <v>0.5584047500964414</v>
       </c>
       <c r="AS69">
         <v>0.0433</v>
@@ -13668,10 +13668,10 @@
         <v>696</v>
       </c>
       <c r="AY69">
-        <v>0.4224308857183907</v>
+        <v>0.4223568402442528</v>
       </c>
       <c r="AZ69">
-        <v>0.6644607568695419</v>
+        <v>0.6644116396174498</v>
       </c>
       <c r="BA69">
         <v>-0.319</v>
@@ -13692,10 +13692,10 @@
         <v>696</v>
       </c>
       <c r="BG69">
-        <v>0.4357356702586206</v>
+        <v>0.4356207626580458</v>
       </c>
       <c r="BH69">
-        <v>0.7740431907982068</v>
+        <v>0.7737803034267281</v>
       </c>
       <c r="BI69">
         <v>-0.495</v>
@@ -13710,7 +13710,7 @@
         <v>0.51725</v>
       </c>
       <c r="BM69">
-        <v>4.16</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="70" spans="1:65">
@@ -13745,10 +13745,10 @@
         <v>696</v>
       </c>
       <c r="K70">
-        <v>36.54238505747127</v>
+        <v>36.54224137931035</v>
       </c>
       <c r="L70">
-        <v>2.807810186662046</v>
+        <v>2.807630431174138</v>
       </c>
       <c r="M70">
         <v>29.9</v>
@@ -13769,10 +13769,10 @@
         <v>696</v>
       </c>
       <c r="S70">
-        <v>2.422573275862063</v>
+        <v>2.422558908045971</v>
       </c>
       <c r="T70">
-        <v>0.8238566738719505</v>
+        <v>0.8238550595309689</v>
       </c>
       <c r="U70">
         <v>0.321</v>
@@ -13793,10 +13793,10 @@
         <v>696</v>
       </c>
       <c r="AA70">
-        <v>36.11954022988503</v>
+        <v>36.11968390804594</v>
       </c>
       <c r="AB70">
-        <v>3.201864172134185</v>
+        <v>3.201712745431524</v>
       </c>
       <c r="AC70">
         <v>30.1</v>
@@ -13865,10 +13865,10 @@
         <v>696</v>
       </c>
       <c r="AY70">
-        <v>0.4229969781321834</v>
+        <v>0.4229127715086202</v>
       </c>
       <c r="AZ70">
-        <v>0.6833228405006548</v>
+        <v>0.6832261816719382</v>
       </c>
       <c r="BA70">
         <v>-0.317</v>
@@ -13889,10 +13889,10 @@
         <v>696</v>
       </c>
       <c r="BG70">
-        <v>0.4391122451293104</v>
+        <v>0.4390511406321841</v>
       </c>
       <c r="BH70">
-        <v>0.8055290288296748</v>
+        <v>0.8055027673804706</v>
       </c>
       <c r="BI70">
         <v>-0.492</v>
@@ -13901,7 +13901,7 @@
         <v>-0.014025</v>
       </c>
       <c r="BK70">
-        <v>0.08205</v>
+        <v>0.082</v>
       </c>
       <c r="BL70">
         <v>0.489</v>
@@ -13966,10 +13966,10 @@
         <v>696</v>
       </c>
       <c r="S71">
-        <v>2.417448275862066</v>
+        <v>2.417433908045974</v>
       </c>
       <c r="T71">
-        <v>0.827159278579953</v>
+        <v>0.8271690622213043</v>
       </c>
       <c r="U71">
         <v>0.316</v>
@@ -14014,10 +14014,10 @@
         <v>696</v>
       </c>
       <c r="AI71">
-        <v>94.91637931034481</v>
+        <v>94.91623563218388</v>
       </c>
       <c r="AJ71">
-        <v>24.50257050898951</v>
+        <v>24.50262609732396</v>
       </c>
       <c r="AK71">
         <v>42.5</v>
@@ -14062,10 +14062,10 @@
         <v>696</v>
       </c>
       <c r="AY71">
-        <v>0.4528632241379306</v>
+        <v>0.4528235272988499</v>
       </c>
       <c r="AZ71">
-        <v>0.7465035491110635</v>
+        <v>0.7465111572026245</v>
       </c>
       <c r="BA71">
         <v>-0.317</v>
@@ -14086,10 +14086,10 @@
         <v>696</v>
       </c>
       <c r="BG71">
-        <v>0.4695994410919531</v>
+        <v>0.4695514827586196</v>
       </c>
       <c r="BH71">
-        <v>0.8742646935558644</v>
+        <v>0.8742558255917818</v>
       </c>
       <c r="BI71">
         <v>-0.492</v>
@@ -14163,10 +14163,10 @@
         <v>696</v>
       </c>
       <c r="S72">
-        <v>2.427380747126433</v>
+        <v>2.427395114942525</v>
       </c>
       <c r="T72">
-        <v>0.8320403958286302</v>
+        <v>0.8320163168912156</v>
       </c>
       <c r="U72">
         <v>0.315</v>
@@ -14259,10 +14259,10 @@
         <v>696</v>
       </c>
       <c r="AY72">
-        <v>0.4755180818965521</v>
+        <v>0.4754899928160922</v>
       </c>
       <c r="AZ72">
-        <v>0.7686021736614649</v>
+        <v>0.7686077673063753</v>
       </c>
       <c r="BA72">
         <v>-0.307</v>
@@ -14283,10 +14283,10 @@
         <v>696</v>
       </c>
       <c r="BG72">
-        <v>0.4932925775862066</v>
+        <v>0.4932283721264368</v>
       </c>
       <c r="BH72">
-        <v>0.9050645294455369</v>
+        <v>0.9049981988014389</v>
       </c>
       <c r="BI72">
         <v>-0.477</v>
@@ -14360,10 +14360,10 @@
         <v>696</v>
       </c>
       <c r="S73">
-        <v>2.441288793103443</v>
+        <v>2.441290229885052</v>
       </c>
       <c r="T73">
-        <v>0.8343369460236816</v>
+        <v>0.8343343095581326</v>
       </c>
       <c r="U73">
         <v>0.316</v>
@@ -14384,10 +14384,10 @@
         <v>696</v>
       </c>
       <c r="AA73">
-        <v>36.04956896551722</v>
+        <v>36.04971264367814</v>
       </c>
       <c r="AB73">
-        <v>3.326916577652857</v>
+        <v>3.326760894143724</v>
       </c>
       <c r="AC73">
         <v>29.6</v>
@@ -14432,10 +14432,10 @@
         <v>696</v>
       </c>
       <c r="AQ73">
-        <v>1.005272701149424</v>
+        <v>1.005256896551723</v>
       </c>
       <c r="AR73">
-        <v>0.5626692002869381</v>
+        <v>0.5626590108702787</v>
       </c>
       <c r="AS73">
         <v>0.0435</v>
@@ -14456,10 +14456,10 @@
         <v>696</v>
       </c>
       <c r="AY73">
-        <v>0.4866037471264368</v>
+        <v>0.4865410660919541</v>
       </c>
       <c r="AZ73">
-        <v>0.7787292002220337</v>
+        <v>0.7786619009135743</v>
       </c>
       <c r="BA73">
         <v>-0.3</v>
@@ -14474,16 +14474,16 @@
         <v>0.9037500000000001</v>
       </c>
       <c r="BE73">
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="BF73">
         <v>696</v>
       </c>
       <c r="BG73">
-        <v>0.505719349137931</v>
+        <v>0.50564920545977</v>
       </c>
       <c r="BH73">
-        <v>0.9208226545101315</v>
+        <v>0.9207807938532089</v>
       </c>
       <c r="BI73">
         <v>-0.467</v>
@@ -14533,10 +14533,10 @@
         <v>696</v>
       </c>
       <c r="K74">
-        <v>36.62255747126443</v>
+        <v>36.62227011494259</v>
       </c>
       <c r="L74">
-        <v>2.847004192899993</v>
+        <v>2.847284409437858</v>
       </c>
       <c r="M74">
         <v>29.9</v>
@@ -14557,13 +14557,13 @@
         <v>696</v>
       </c>
       <c r="S74">
-        <v>2.500149425287357</v>
+        <v>2.499682471264368</v>
       </c>
       <c r="T74">
-        <v>0.841495479719385</v>
+        <v>0.8414647804443592</v>
       </c>
       <c r="U74">
-        <v>0.324</v>
+        <v>0.316</v>
       </c>
       <c r="V74">
         <v>1.94</v>
@@ -14581,10 +14581,10 @@
         <v>696</v>
       </c>
       <c r="AA74">
-        <v>36.08074712643678</v>
+        <v>36.08103448275862</v>
       </c>
       <c r="AB74">
-        <v>3.345750447912096</v>
+        <v>3.345515554288915</v>
       </c>
       <c r="AC74">
         <v>29.6</v>
@@ -14605,10 +14605,10 @@
         <v>696</v>
       </c>
       <c r="AI74">
-        <v>95.81465517241385</v>
+        <v>95.81594827586214</v>
       </c>
       <c r="AJ74">
-        <v>25.10828607295232</v>
+        <v>25.1092505804333</v>
       </c>
       <c r="AK74">
         <v>43.3</v>
@@ -14629,10 +14629,10 @@
         <v>696</v>
       </c>
       <c r="AQ74">
-        <v>1.011438649425286</v>
+        <v>1.011424425287355</v>
       </c>
       <c r="AR74">
-        <v>0.5687135090298043</v>
+        <v>0.5687015408272054</v>
       </c>
       <c r="AS74">
         <v>0.0437</v>
@@ -14653,10 +14653,10 @@
         <v>696</v>
       </c>
       <c r="AY74">
-        <v>0.5074790561781609</v>
+        <v>0.5073181320402299</v>
       </c>
       <c r="AZ74">
-        <v>0.7828971405513614</v>
+        <v>0.7827043684698213</v>
       </c>
       <c r="BA74">
         <v>-0.268</v>
@@ -14677,10 +14677,10 @@
         <v>696</v>
       </c>
       <c r="BG74">
-        <v>0.5281478979885054</v>
+        <v>0.5280672140804594</v>
       </c>
       <c r="BH74">
-        <v>0.9349634669146503</v>
+        <v>0.9349219566231682</v>
       </c>
       <c r="BI74">
         <v>-0.417</v>
@@ -14730,10 +14730,10 @@
         <v>696</v>
       </c>
       <c r="K75">
-        <v>36.80589080459769</v>
+        <v>36.79094827586205</v>
       </c>
       <c r="L75">
-        <v>2.877500376013612</v>
+        <v>2.875631422469907</v>
       </c>
       <c r="M75">
         <v>29.9</v>
@@ -14754,34 +14754,34 @@
         <v>696</v>
       </c>
       <c r="S75">
-        <v>2.683760057471264</v>
+        <v>2.669012931034482</v>
       </c>
       <c r="T75">
-        <v>0.8574948748128807</v>
+        <v>0.8565415157351514</v>
       </c>
       <c r="U75">
-        <v>0.331</v>
+        <v>0.335</v>
       </c>
       <c r="V75">
-        <v>2.145</v>
+        <v>2.13</v>
       </c>
       <c r="W75">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="X75">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="Y75">
-        <v>4.39</v>
+        <v>4.38</v>
       </c>
       <c r="Z75">
         <v>696</v>
       </c>
       <c r="AA75">
-        <v>36.25502873563214</v>
+        <v>36.25560344827583</v>
       </c>
       <c r="AB75">
-        <v>3.261760657850475</v>
+        <v>3.261252384796462</v>
       </c>
       <c r="AC75">
         <v>30.1</v>
@@ -14802,16 +14802,16 @@
         <v>696</v>
       </c>
       <c r="AI75">
-        <v>97.31393678160917</v>
+        <v>97.27198275862069</v>
       </c>
       <c r="AJ75">
-        <v>25.46448492581391</v>
+        <v>25.44704428466303</v>
       </c>
       <c r="AK75">
         <v>47.1</v>
       </c>
       <c r="AL75">
-        <v>81.325</v>
+        <v>81.175</v>
       </c>
       <c r="AM75">
         <v>104.5</v>
@@ -14826,10 +14826,10 @@
         <v>696</v>
       </c>
       <c r="AQ75">
-        <v>1.028186781609197</v>
+        <v>1.027719396551726</v>
       </c>
       <c r="AR75">
-        <v>0.578626451185973</v>
+        <v>0.5783931834480794</v>
       </c>
       <c r="AS75">
         <v>0.044</v>
@@ -14850,10 +14850,10 @@
         <v>696</v>
       </c>
       <c r="AY75">
-        <v>0.4976775560344827</v>
+        <v>0.4971024310344825</v>
       </c>
       <c r="AZ75">
-        <v>0.6843105518008892</v>
+        <v>0.6835903333135055</v>
       </c>
       <c r="BA75">
         <v>-0.251</v>
@@ -14862,28 +14862,28 @@
         <v>0.022075</v>
       </c>
       <c r="BC75">
-        <v>0.169</v>
+        <v>0.168</v>
       </c>
       <c r="BD75">
-        <v>0.93225</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="BE75">
-        <v>3.21</v>
+        <v>3.2</v>
       </c>
       <c r="BF75">
         <v>696</v>
       </c>
       <c r="BG75">
-        <v>0.5164198275862065</v>
+        <v>0.5159517543103446</v>
       </c>
       <c r="BH75">
-        <v>0.8128529023116278</v>
+        <v>0.812182849049066</v>
       </c>
       <c r="BI75">
         <v>-0.408</v>
       </c>
       <c r="BJ75">
-        <v>0.011375</v>
+        <v>0.011275</v>
       </c>
       <c r="BK75">
         <v>0.13</v>
@@ -14927,10 +14927,10 @@
         <v>696</v>
       </c>
       <c r="K76">
-        <v>36.86350574712644</v>
+        <v>36.86264367816092</v>
       </c>
       <c r="L76">
-        <v>2.803223490315672</v>
+        <v>2.803289110213571</v>
       </c>
       <c r="M76">
         <v>31.1</v>
@@ -14951,10 +14951,10 @@
         <v>696</v>
       </c>
       <c r="S76">
-        <v>2.738951149425287</v>
+        <v>2.73867816091954</v>
       </c>
       <c r="T76">
-        <v>0.7994515515162242</v>
+        <v>0.7994699538206147</v>
       </c>
       <c r="U76">
         <v>1.29</v>
@@ -14999,10 +14999,10 @@
         <v>696</v>
       </c>
       <c r="AI76">
-        <v>98.29612068965514</v>
+        <v>98.29683908045973</v>
       </c>
       <c r="AJ76">
-        <v>25.9390930080521</v>
+        <v>25.94074689954856</v>
       </c>
       <c r="AK76">
         <v>50.7</v>
@@ -15023,10 +15023,10 @@
         <v>696</v>
       </c>
       <c r="AQ76">
-        <v>1.038921982758621</v>
+        <v>1.038917672413793</v>
       </c>
       <c r="AR76">
-        <v>0.5866356569255696</v>
+        <v>0.5866375657696398</v>
       </c>
       <c r="AS76">
         <v>0.0447</v>
@@ -15047,10 +15047,10 @@
         <v>696</v>
       </c>
       <c r="AY76">
-        <v>0.434788332327586</v>
+        <v>0.4347960314655172</v>
       </c>
       <c r="AZ76">
-        <v>0.5556199566778229</v>
+        <v>0.5556811467091476</v>
       </c>
       <c r="BA76">
         <v>-0.186</v>
@@ -15071,10 +15071,10 @@
         <v>696</v>
       </c>
       <c r="BG76">
-        <v>0.463785718821839</v>
+        <v>0.4637877071839078</v>
       </c>
       <c r="BH76">
-        <v>0.6963688788700356</v>
+        <v>0.6964321901368365</v>
       </c>
       <c r="BI76">
         <v>-0.292</v>
@@ -15086,7 +15086,7 @@
         <v>0.1305</v>
       </c>
       <c r="BL76">
-        <v>0.5742499999999999</v>
+        <v>0.5734999999999999</v>
       </c>
       <c r="BM76">
         <v>3</v>
@@ -15151,7 +15151,7 @@
         <v>2.862471264367815</v>
       </c>
       <c r="T77">
-        <v>0.6875324969955057</v>
+        <v>0.6875117782381928</v>
       </c>
       <c r="U77">
         <v>1.62</v>
@@ -15196,10 +15196,10 @@
         <v>696</v>
       </c>
       <c r="AI77">
-        <v>99.22672413793093</v>
+        <v>99.22643678160908</v>
       </c>
       <c r="AJ77">
-        <v>26.48734414585148</v>
+        <v>26.48774858818356</v>
       </c>
       <c r="AK77">
         <v>51.8</v>
@@ -15244,10 +15244,10 @@
         <v>696</v>
       </c>
       <c r="AY77">
-        <v>0.4028015747126442</v>
+        <v>0.4027566048850577</v>
       </c>
       <c r="AZ77">
-        <v>0.4846099491168443</v>
+        <v>0.4845790643700407</v>
       </c>
       <c r="BA77">
         <v>-0.184</v>
@@ -15256,7 +15256,7 @@
         <v>0.0088725</v>
       </c>
       <c r="BC77">
-        <v>0.155</v>
+        <v>0.1545</v>
       </c>
       <c r="BD77">
         <v>0.80525</v>
@@ -15268,10 +15268,10 @@
         <v>696</v>
       </c>
       <c r="BG77">
-        <v>0.4452179102011493</v>
+        <v>0.445155743965517</v>
       </c>
       <c r="BH77">
-        <v>0.6317819350440742</v>
+        <v>0.6317590727924394</v>
       </c>
       <c r="BI77">
         <v>-0.289</v>
@@ -15283,7 +15283,7 @@
         <v>0.122</v>
       </c>
       <c r="BL77">
-        <v>0.6915</v>
+        <v>0.69075</v>
       </c>
       <c r="BM77">
         <v>2.64</v>
@@ -15321,10 +15321,10 @@
         <v>696</v>
       </c>
       <c r="K78">
-        <v>37.10833333333326</v>
+        <v>37.10962643678154</v>
       </c>
       <c r="L78">
-        <v>2.390355822724435</v>
+        <v>2.390636862522447</v>
       </c>
       <c r="M78">
         <v>33.3</v>
@@ -15345,22 +15345,22 @@
         <v>696</v>
       </c>
       <c r="S78">
-        <v>2.984928160919537</v>
+        <v>2.986939655172411</v>
       </c>
       <c r="T78">
-        <v>0.6462881247210583</v>
+        <v>0.6464354741600613</v>
       </c>
       <c r="U78">
         <v>1.99</v>
       </c>
       <c r="V78">
-        <v>2.44</v>
+        <v>2.4475</v>
       </c>
       <c r="W78">
         <v>2.925</v>
       </c>
       <c r="X78">
-        <v>3.5325</v>
+        <v>3.54</v>
       </c>
       <c r="Y78">
         <v>4.25</v>
@@ -15393,10 +15393,10 @@
         <v>696</v>
       </c>
       <c r="AI78">
-        <v>100.0420977011494</v>
+        <v>100.0462643678161</v>
       </c>
       <c r="AJ78">
-        <v>27.2893147596958</v>
+        <v>27.29948665518245</v>
       </c>
       <c r="AK78">
         <v>50.7</v>
@@ -15417,10 +15417,10 @@
         <v>696</v>
       </c>
       <c r="AQ78">
-        <v>1.060757614942528</v>
+        <v>1.060871264367816</v>
       </c>
       <c r="AR78">
-        <v>0.6061790445189204</v>
+        <v>0.6062670942902293</v>
       </c>
       <c r="AS78">
         <v>0.0449</v>
@@ -15441,10 +15441,10 @@
         <v>696</v>
       </c>
       <c r="AY78">
-        <v>0.3884134454022988</v>
+        <v>0.3883913462643678</v>
       </c>
       <c r="AZ78">
-        <v>0.4925698846013908</v>
+        <v>0.4925631842503396</v>
       </c>
       <c r="BA78">
         <v>-0.222</v>
@@ -15465,10 +15465,10 @@
         <v>696</v>
       </c>
       <c r="BG78">
-        <v>0.454550326149425</v>
+        <v>0.4545313017241377</v>
       </c>
       <c r="BH78">
-        <v>0.6681171093256518</v>
+        <v>0.6681083849134111</v>
       </c>
       <c r="BI78">
         <v>-0.348</v>
@@ -15518,10 +15518,10 @@
         <v>696</v>
       </c>
       <c r="K79">
-        <v>37.2275862068966</v>
+        <v>37.22844827586211</v>
       </c>
       <c r="L79">
-        <v>2.100671473610207</v>
+        <v>2.100701056032764</v>
       </c>
       <c r="M79">
         <v>34.3</v>
@@ -15542,16 +15542,16 @@
         <v>696</v>
       </c>
       <c r="S79">
-        <v>3.106910919540236</v>
+        <v>3.107844827586212</v>
       </c>
       <c r="T79">
-        <v>0.8193217571220369</v>
+        <v>0.8193448578167567</v>
       </c>
       <c r="U79">
         <v>1.87</v>
       </c>
       <c r="V79">
-        <v>2.38</v>
+        <v>2.3875</v>
       </c>
       <c r="W79">
         <v>2.94</v>
@@ -15590,10 +15590,10 @@
         <v>696</v>
       </c>
       <c r="AI79">
-        <v>101.2721264367816</v>
+        <v>101.2774425287357</v>
       </c>
       <c r="AJ79">
-        <v>29.08503482417646</v>
+        <v>29.0867082761528</v>
       </c>
       <c r="AK79">
         <v>46.9</v>
@@ -15614,10 +15614,10 @@
         <v>696</v>
       </c>
       <c r="AQ79">
-        <v>1.077718247126438</v>
+        <v>1.07774985632184</v>
       </c>
       <c r="AR79">
-        <v>0.6268372972819066</v>
+        <v>0.6268322814475396</v>
       </c>
       <c r="AS79">
         <v>0.0444</v>
@@ -15638,10 +15638,10 @@
         <v>696</v>
       </c>
       <c r="AY79">
-        <v>0.373524625</v>
+        <v>0.3735053778735631</v>
       </c>
       <c r="AZ79">
-        <v>0.516132634884505</v>
+        <v>0.5161242531857173</v>
       </c>
       <c r="BA79">
         <v>-0.289</v>
@@ -15662,10 +15662,10 @@
         <v>696</v>
       </c>
       <c r="BG79">
-        <v>0.4750107284482759</v>
+        <v>0.4749644051724138</v>
       </c>
       <c r="BH79">
-        <v>0.7383525933791918</v>
+        <v>0.7382817981322078</v>
       </c>
       <c r="BI79">
         <v>-0.451</v>
@@ -15674,7 +15674,7 @@
         <v>-0.0196</v>
       </c>
       <c r="BK79">
-        <v>0.06945</v>
+        <v>0.06939999999999999</v>
       </c>
       <c r="BL79">
         <v>1.0425</v>
@@ -15715,10 +15715,10 @@
         <v>696</v>
       </c>
       <c r="K80">
-        <v>37.49367816091962</v>
+        <v>37.49209770114951</v>
       </c>
       <c r="L80">
-        <v>1.733733105308666</v>
+        <v>1.733365561229945</v>
       </c>
       <c r="M80">
         <v>35.2</v>
@@ -15739,10 +15739,10 @@
         <v>696</v>
       </c>
       <c r="S80">
-        <v>3.371666666666665</v>
+        <v>3.369956896551722</v>
       </c>
       <c r="T80">
-        <v>1.113548393192148</v>
+        <v>1.113624130115448</v>
       </c>
       <c r="U80">
         <v>1.77</v>
@@ -15751,7 +15751,7 @@
         <v>2.48</v>
       </c>
       <c r="W80">
-        <v>3.08</v>
+        <v>3.075</v>
       </c>
       <c r="X80">
         <v>3.94</v>
@@ -15787,10 +15787,10 @@
         <v>696</v>
       </c>
       <c r="AI80">
-        <v>104.874856321839</v>
+        <v>104.8715517241378</v>
       </c>
       <c r="AJ80">
-        <v>34.03478394179902</v>
+        <v>34.03556913744136</v>
       </c>
       <c r="AK80">
         <v>43.1</v>
@@ -15811,10 +15811,10 @@
         <v>696</v>
       </c>
       <c r="AQ80">
-        <v>1.121440517241379</v>
+        <v>1.121421839080459</v>
       </c>
       <c r="AR80">
-        <v>0.6810561229131042</v>
+        <v>0.6810550731362849</v>
       </c>
       <c r="AS80">
         <v>0.0445</v>
@@ -15835,10 +15835,10 @@
         <v>696</v>
       </c>
       <c r="AY80">
-        <v>0.4364835502873562</v>
+        <v>0.4364838692528734</v>
       </c>
       <c r="AZ80">
-        <v>0.5946349287815357</v>
+        <v>0.5946387489158346</v>
       </c>
       <c r="BA80">
         <v>-0.334</v>
@@ -15850,7 +15850,7 @@
         <v>0.093</v>
       </c>
       <c r="BD80">
-        <v>0.9</v>
+        <v>0.90025</v>
       </c>
       <c r="BE80">
         <v>2.17</v>
@@ -15859,19 +15859,19 @@
         <v>696</v>
       </c>
       <c r="BG80">
-        <v>0.5953737024425283</v>
+        <v>0.5953856876436778</v>
       </c>
       <c r="BH80">
-        <v>0.899125047238399</v>
+        <v>0.899121510126949</v>
       </c>
       <c r="BI80">
         <v>-0.52</v>
       </c>
       <c r="BJ80">
-        <v>-0.02425</v>
+        <v>-0.024325</v>
       </c>
       <c r="BK80">
-        <v>0.0669</v>
+        <v>0.06684999999999999</v>
       </c>
       <c r="BL80">
         <v>1.3325</v>
@@ -15912,10 +15912,10 @@
         <v>696</v>
       </c>
       <c r="K81">
-        <v>37.92859195402306</v>
+        <v>37.92974137931043</v>
       </c>
       <c r="L81">
-        <v>1.363713202255929</v>
+        <v>1.364469145172224</v>
       </c>
       <c r="M81">
         <v>36.2</v>
@@ -15936,10 +15936,10 @@
         <v>696</v>
       </c>
       <c r="S81">
-        <v>3.808591954022982</v>
+        <v>3.808821839080458</v>
       </c>
       <c r="T81">
-        <v>1.4219103676711</v>
+        <v>1.421928184198757</v>
       </c>
       <c r="U81">
         <v>1.79</v>
@@ -15951,19 +15951,19 @@
         <v>3.57</v>
       </c>
       <c r="X81">
-        <v>4.6225</v>
+        <v>4.6175</v>
       </c>
       <c r="Y81">
-        <v>7.6</v>
+        <v>7.61</v>
       </c>
       <c r="Z81">
         <v>696</v>
       </c>
       <c r="AA81">
-        <v>37.38606321839082</v>
+        <v>37.38591954022989</v>
       </c>
       <c r="AB81">
-        <v>1.881112028844225</v>
+        <v>1.88120656655108</v>
       </c>
       <c r="AC81">
         <v>34.1</v>
@@ -15984,10 +15984,10 @@
         <v>696</v>
       </c>
       <c r="AI81">
-        <v>111.1448275862069</v>
+        <v>111.141235632184</v>
       </c>
       <c r="AJ81">
-        <v>41.37762856749417</v>
+        <v>41.37957488954382</v>
       </c>
       <c r="AK81">
         <v>42.8</v>
@@ -16008,10 +16008,10 @@
         <v>696</v>
       </c>
       <c r="AQ81">
-        <v>1.192569540229885</v>
+        <v>1.192499137931034</v>
       </c>
       <c r="AR81">
-        <v>0.7674611484875142</v>
+        <v>0.7674366399357033</v>
       </c>
       <c r="AS81">
         <v>0.0456</v>
@@ -16026,16 +16026,16 @@
         <v>1.71</v>
       </c>
       <c r="AW81">
-        <v>4.98</v>
+        <v>4.99</v>
       </c>
       <c r="AX81">
         <v>696</v>
       </c>
       <c r="AY81">
-        <v>0.5183298663793101</v>
+        <v>0.5183120775862067</v>
       </c>
       <c r="AZ81">
-        <v>0.6550555665676846</v>
+        <v>0.6550536903416886</v>
       </c>
       <c r="BA81">
         <v>-0.329</v>
@@ -16056,10 +16056,10 @@
         <v>696</v>
       </c>
       <c r="BG81">
-        <v>0.7361121192528737</v>
+        <v>0.7360705603448278</v>
       </c>
       <c r="BH81">
-        <v>1.036924935423936</v>
+        <v>1.036902289119292</v>
       </c>
       <c r="BI81">
         <v>-0.511</v>
@@ -16109,10 +16109,10 @@
         <v>696</v>
       </c>
       <c r="K82">
-        <v>38.41264367816102</v>
+        <v>38.42112068965518</v>
       </c>
       <c r="L82">
-        <v>1.001271663114292</v>
+        <v>0.997882308671622</v>
       </c>
       <c r="M82">
         <v>37.2</v>
@@ -16133,34 +16133,34 @@
         <v>696</v>
       </c>
       <c r="S82">
-        <v>4.296422413793099</v>
+        <v>4.300043103448275</v>
       </c>
       <c r="T82">
-        <v>1.734252058970569</v>
+        <v>1.733986092194397</v>
       </c>
       <c r="U82">
         <v>1.85</v>
       </c>
       <c r="V82">
-        <v>2.8075</v>
+        <v>2.8</v>
       </c>
       <c r="W82">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="X82">
-        <v>5.512499999999999</v>
+        <v>5.51</v>
       </c>
       <c r="Y82">
-        <v>8.470000000000001</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="Z82">
         <v>696</v>
       </c>
       <c r="AA82">
-        <v>37.85948275862068</v>
+        <v>37.85933908045975</v>
       </c>
       <c r="AB82">
-        <v>1.499782916566466</v>
+        <v>1.500004458495537</v>
       </c>
       <c r="AC82">
         <v>35.2</v>
@@ -16181,22 +16181,22 @@
         <v>696</v>
       </c>
       <c r="AI82">
-        <v>119.4413793103448</v>
+        <v>119.4564655172415</v>
       </c>
       <c r="AJ82">
-        <v>49.78075627550215</v>
+        <v>49.77594361188427</v>
       </c>
       <c r="AK82">
         <v>42.9</v>
       </c>
       <c r="AL82">
-        <v>88.09999999999999</v>
+        <v>88.02499999999999</v>
       </c>
       <c r="AM82">
         <v>112</v>
       </c>
       <c r="AN82">
-        <v>136</v>
+        <v>136.25</v>
       </c>
       <c r="AO82">
         <v>399</v>
@@ -16205,16 +16205,16 @@
         <v>696</v>
       </c>
       <c r="AQ82">
-        <v>1.27575933908046</v>
+        <v>1.276052586206897</v>
       </c>
       <c r="AR82">
-        <v>0.8494641741670047</v>
+        <v>0.8496427859602579</v>
       </c>
       <c r="AS82">
         <v>0.0496</v>
       </c>
       <c r="AT82">
-        <v>0.58475</v>
+        <v>0.5845</v>
       </c>
       <c r="AU82">
         <v>1.22</v>
@@ -16229,19 +16229,19 @@
         <v>696</v>
       </c>
       <c r="AY82">
-        <v>0.5450387966954019</v>
+        <v>0.5450779538793099</v>
       </c>
       <c r="AZ82">
-        <v>0.644191991878911</v>
+        <v>0.6442630999794561</v>
       </c>
       <c r="BA82">
         <v>-0.325</v>
       </c>
       <c r="BB82">
-        <v>-0.0009300000000000001</v>
+        <v>-0.00093075</v>
       </c>
       <c r="BC82">
-        <v>0.237</v>
+        <v>0.2375</v>
       </c>
       <c r="BD82">
         <v>1.08</v>
@@ -16253,22 +16253,22 @@
         <v>696</v>
       </c>
       <c r="BG82">
-        <v>0.8113265330459768</v>
+        <v>0.8115905714080465</v>
       </c>
       <c r="BH82">
-        <v>1.074391243021347</v>
+        <v>1.074815130512864</v>
       </c>
       <c r="BI82">
         <v>-0.505</v>
       </c>
       <c r="BJ82">
-        <v>-0.00064725</v>
+        <v>-0.000647</v>
       </c>
       <c r="BK82">
-        <v>0.214</v>
+        <v>0.2135</v>
       </c>
       <c r="BL82">
-        <v>1.7575</v>
+        <v>1.755</v>
       </c>
       <c r="BM82">
         <v>4.15</v>
@@ -16306,10 +16306,10 @@
         <v>696</v>
       </c>
       <c r="K83">
-        <v>38.79971264367794</v>
+        <v>38.80272988505726</v>
       </c>
       <c r="L83">
-        <v>0.7429863351946301</v>
+        <v>0.7424098552147487</v>
       </c>
       <c r="M83">
         <v>38.1</v>
@@ -16330,10 +16330,10 @@
         <v>696</v>
       </c>
       <c r="S83">
-        <v>4.678706896551723</v>
+        <v>4.680014367816091</v>
       </c>
       <c r="T83">
-        <v>1.929706443625836</v>
+        <v>1.929950422390895</v>
       </c>
       <c r="U83">
         <v>1.93</v>
@@ -16348,16 +16348,16 @@
         <v>6.1425</v>
       </c>
       <c r="Y83">
-        <v>8.789999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z83">
         <v>696</v>
       </c>
       <c r="AA83">
-        <v>38.28692528735632</v>
+        <v>38.28778735632184</v>
       </c>
       <c r="AB83">
-        <v>1.203132015884956</v>
+        <v>1.202315627008076</v>
       </c>
       <c r="AC83">
         <v>36.2</v>
@@ -16378,16 +16378,16 @@
         <v>696</v>
       </c>
       <c r="AI83">
-        <v>125.823132183908</v>
+        <v>125.8290229885057</v>
       </c>
       <c r="AJ83">
-        <v>55.03768855951231</v>
+        <v>55.03274987979291</v>
       </c>
       <c r="AK83">
         <v>43.7</v>
       </c>
       <c r="AL83">
-        <v>91.875</v>
+        <v>91.95</v>
       </c>
       <c r="AM83">
         <v>112</v>
@@ -16402,10 +16402,10 @@
         <v>696</v>
       </c>
       <c r="AQ83">
-        <v>1.343573419540228</v>
+        <v>1.343653879310343</v>
       </c>
       <c r="AR83">
-        <v>0.9090160732552237</v>
+        <v>0.9091435602772335</v>
       </c>
       <c r="AS83">
         <v>0.0544</v>
@@ -16420,16 +16420,16 @@
         <v>1.8425</v>
       </c>
       <c r="AW83">
-        <v>5.37</v>
+        <v>5.38</v>
       </c>
       <c r="AX83">
         <v>696</v>
       </c>
       <c r="AY83">
-        <v>0.4979950083620692</v>
+        <v>0.4978366965775864</v>
       </c>
       <c r="AZ83">
-        <v>0.5782103001633612</v>
+        <v>0.5779999539789801</v>
       </c>
       <c r="BA83">
         <v>-0.32</v>
@@ -16441,7 +16441,7 @@
         <v>0.247</v>
       </c>
       <c r="BD83">
-        <v>0.964</v>
+        <v>0.9632499999999999</v>
       </c>
       <c r="BE83">
         <v>1.96</v>
@@ -16450,10 +16450,10 @@
         <v>696</v>
       </c>
       <c r="BG83">
-        <v>0.7821338873132181</v>
+        <v>0.7818097135775859</v>
       </c>
       <c r="BH83">
-        <v>1.04785807870233</v>
+        <v>1.047404777310496</v>
       </c>
       <c r="BI83">
         <v>-0.496</v>
@@ -16503,10 +16503,10 @@
         <v>696</v>
       </c>
       <c r="K84">
-        <v>38.84181034482737</v>
+        <v>38.84209770114921</v>
       </c>
       <c r="L84">
-        <v>0.7369715582356146</v>
+        <v>0.737208947427642</v>
       </c>
       <c r="M84">
         <v>38.3</v>
@@ -16527,10 +16527,10 @@
         <v>696</v>
       </c>
       <c r="S84">
-        <v>4.72073275862069</v>
+        <v>4.72087643678161</v>
       </c>
       <c r="T84">
-        <v>1.925076743791395</v>
+        <v>1.92503497693107</v>
       </c>
       <c r="U84">
         <v>2</v>
@@ -16575,10 +16575,10 @@
         <v>696</v>
       </c>
       <c r="AI84">
-        <v>126.5860632183908</v>
+        <v>126.5863505747127</v>
       </c>
       <c r="AJ84">
-        <v>55.27727302789383</v>
+        <v>55.27698703293726</v>
       </c>
       <c r="AK84">
         <v>45.8</v>
@@ -16623,10 +16623,10 @@
         <v>696</v>
       </c>
       <c r="AY84">
-        <v>0.4452674492816091</v>
+        <v>0.4451826334770114</v>
       </c>
       <c r="AZ84">
-        <v>0.5404944462650012</v>
+        <v>0.5404008184240872</v>
       </c>
       <c r="BA84">
         <v>-0.286</v>
@@ -16635,7 +16635,7 @@
         <v>0.0113</v>
       </c>
       <c r="BC84">
-        <v>0.166</v>
+        <v>0.1655</v>
       </c>
       <c r="BD84">
         <v>0.844</v>
@@ -16647,10 +16647,10 @@
         <v>696</v>
       </c>
       <c r="BG84">
-        <v>0.7116060474137936</v>
+        <v>0.7114766777298854</v>
       </c>
       <c r="BH84">
-        <v>0.9930519813360417</v>
+        <v>0.9928875943242302</v>
       </c>
       <c r="BI84">
         <v>-0.444</v>
@@ -16665,7 +16665,7 @@
         <v>1.3925</v>
       </c>
       <c r="BM84">
-        <v>4.41</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="85" spans="1:65">
@@ -16700,10 +16700,10 @@
         <v>696</v>
       </c>
       <c r="K85">
-        <v>38.84008620689633</v>
+        <v>38.84051724137909</v>
       </c>
       <c r="L85">
-        <v>0.7314434284075287</v>
+        <v>0.7315278323389233</v>
       </c>
       <c r="M85">
         <v>38.3</v>
@@ -16724,10 +16724,10 @@
         <v>696</v>
       </c>
       <c r="S85">
-        <v>4.719841954022986</v>
+        <v>4.720747126436779</v>
       </c>
       <c r="T85">
-        <v>1.92898843383345</v>
+        <v>1.92897154970209</v>
       </c>
       <c r="U85">
         <v>1.99</v>
@@ -16739,7 +16739,7 @@
         <v>4.4</v>
       </c>
       <c r="X85">
-        <v>6.1725</v>
+        <v>6.18</v>
       </c>
       <c r="Y85">
         <v>8.75</v>
@@ -16772,10 +16772,10 @@
         <v>696</v>
       </c>
       <c r="AI85">
-        <v>126.648132183908</v>
+        <v>126.6492816091954</v>
       </c>
       <c r="AJ85">
-        <v>55.30005994209917</v>
+        <v>55.29922553532649</v>
       </c>
       <c r="AK85">
         <v>47.1</v>
@@ -16796,10 +16796,10 @@
         <v>696</v>
       </c>
       <c r="AQ85">
-        <v>1.352137787356321</v>
+        <v>1.35215790229885</v>
       </c>
       <c r="AR85">
-        <v>0.9138076701254666</v>
+        <v>0.913820915154296</v>
       </c>
       <c r="AS85">
         <v>0.0555</v>
@@ -16820,10 +16820,10 @@
         <v>696</v>
       </c>
       <c r="AY85">
-        <v>0.4309988261494251</v>
+        <v>0.430961510057471</v>
       </c>
       <c r="AZ85">
-        <v>0.5532071644488498</v>
+        <v>0.5531764291051529</v>
       </c>
       <c r="BA85">
         <v>-0.294</v>
@@ -16844,10 +16844,10 @@
         <v>696</v>
       </c>
       <c r="BG85">
-        <v>0.6963869885057473</v>
+        <v>0.6963715244252875</v>
       </c>
       <c r="BH85">
-        <v>1.003809928925016</v>
+        <v>1.003830151323523</v>
       </c>
       <c r="BI85">
         <v>-0.457</v>
@@ -16921,10 +16921,10 @@
         <v>696</v>
       </c>
       <c r="S86">
-        <v>4.73481321839081</v>
+        <v>4.734827586206902</v>
       </c>
       <c r="T86">
-        <v>1.922704396228984</v>
+        <v>1.922723330643788</v>
       </c>
       <c r="U86">
         <v>2.02</v>
@@ -16993,10 +16993,10 @@
         <v>696</v>
       </c>
       <c r="AQ86">
-        <v>1.353526005747126</v>
+        <v>1.353527442528735</v>
       </c>
       <c r="AR86">
-        <v>0.9142729949652497</v>
+        <v>0.9142721923037609</v>
       </c>
       <c r="AS86">
         <v>0.0555</v>
@@ -17017,10 +17017,10 @@
         <v>696</v>
       </c>
       <c r="AY86">
-        <v>0.4119143507183908</v>
+        <v>0.4118927557471264</v>
       </c>
       <c r="AZ86">
-        <v>0.5236381743186671</v>
+        <v>0.5236322632476172</v>
       </c>
       <c r="BA86">
         <v>-0.281</v>
@@ -17041,10 +17041,10 @@
         <v>696</v>
       </c>
       <c r="BG86">
-        <v>0.6578250446551729</v>
+        <v>0.6577438347701154</v>
       </c>
       <c r="BH86">
-        <v>0.9227559310118156</v>
+        <v>0.9226615053823948</v>
       </c>
       <c r="BI86">
         <v>-0.437</v>
@@ -17094,10 +17094,10 @@
         <v>696</v>
       </c>
       <c r="K87">
-        <v>38.86882183908029</v>
+        <v>38.86968390804581</v>
       </c>
       <c r="L87">
-        <v>0.7564527534572265</v>
+        <v>0.756487843112264</v>
       </c>
       <c r="M87">
         <v>38.3</v>
@@ -17118,22 +17118,22 @@
         <v>696</v>
       </c>
       <c r="S87">
-        <v>4.753031609195402</v>
+        <v>4.753951149425287</v>
       </c>
       <c r="T87">
-        <v>1.912550409663239</v>
+        <v>1.912323169739849</v>
       </c>
       <c r="U87">
         <v>2.05</v>
       </c>
       <c r="V87">
-        <v>2.9025</v>
+        <v>2.905</v>
       </c>
       <c r="W87">
         <v>4.44</v>
       </c>
       <c r="X87">
-        <v>6.19</v>
+        <v>6.1975</v>
       </c>
       <c r="Y87">
         <v>8.77</v>
@@ -17166,10 +17166,10 @@
         <v>696</v>
       </c>
       <c r="AI87">
-        <v>126.9560344827586</v>
+        <v>126.9567528735632</v>
       </c>
       <c r="AJ87">
-        <v>55.30330463092572</v>
+        <v>55.30275375637378</v>
       </c>
       <c r="AK87">
         <v>48.4</v>
@@ -17190,10 +17190,10 @@
         <v>696</v>
       </c>
       <c r="AQ87">
-        <v>1.355361637931034</v>
+        <v>1.355394683908045</v>
       </c>
       <c r="AR87">
-        <v>0.9145777678508797</v>
+        <v>0.9146762438194558</v>
       </c>
       <c r="AS87">
         <v>0.0556</v>
@@ -17208,16 +17208,16 @@
         <v>1.845</v>
       </c>
       <c r="AW87">
-        <v>5.38</v>
+        <v>5.39</v>
       </c>
       <c r="AX87">
         <v>696</v>
       </c>
       <c r="AY87">
-        <v>0.418909564942529</v>
+        <v>0.4188904379310346</v>
       </c>
       <c r="AZ87">
-        <v>0.5438392881178394</v>
+        <v>0.5438344808230435</v>
       </c>
       <c r="BA87">
         <v>-0.266</v>
@@ -17238,10 +17238,10 @@
         <v>696</v>
       </c>
       <c r="BG87">
-        <v>0.67782553821839</v>
+        <v>0.6777970895114936</v>
       </c>
       <c r="BH87">
-        <v>0.9904846603657951</v>
+        <v>0.9904283724822615</v>
       </c>
       <c r="BI87">
         <v>-0.415</v>
@@ -17411,10 +17411,10 @@
         <v>696</v>
       </c>
       <c r="AY88">
-        <v>0.3932187629310345</v>
+        <v>0.3931894683908044</v>
       </c>
       <c r="AZ88">
-        <v>0.5013535876215145</v>
+        <v>0.5013488886528804</v>
       </c>
       <c r="BA88">
         <v>-0.261</v>
@@ -17435,10 +17435,10 @@
         <v>696</v>
       </c>
       <c r="BG88">
-        <v>0.6327970603448274</v>
+        <v>0.6327673204022988</v>
       </c>
       <c r="BH88">
-        <v>0.906917146311784</v>
+        <v>0.9068758971762184</v>
       </c>
       <c r="BI88">
         <v>-0.407</v>
@@ -17447,7 +17447,7 @@
         <v>0.0025975</v>
       </c>
       <c r="BK88">
-        <v>0.09995000000000001</v>
+        <v>0.0999</v>
       </c>
       <c r="BL88">
         <v>1.2225</v>
@@ -17584,10 +17584,10 @@
         <v>696</v>
       </c>
       <c r="AQ89">
-        <v>1.359464798850573</v>
+        <v>1.359479166666665</v>
       </c>
       <c r="AR89">
-        <v>0.9166516115518123</v>
+        <v>0.9166774406980744</v>
       </c>
       <c r="AS89">
         <v>0.0557</v>
@@ -17608,16 +17608,16 @@
         <v>696</v>
       </c>
       <c r="AY89">
-        <v>0.350298600574713</v>
+        <v>0.3502616910919544</v>
       </c>
       <c r="AZ89">
-        <v>0.4428155171408655</v>
+        <v>0.4427738787588607</v>
       </c>
       <c r="BA89">
         <v>-0.252</v>
       </c>
       <c r="BB89">
-        <v>0.0056875</v>
+        <v>0.00568</v>
       </c>
       <c r="BC89">
         <v>0.08985</v>
@@ -17632,10 +17632,10 @@
         <v>696</v>
       </c>
       <c r="BG89">
-        <v>0.5662671528735627</v>
+        <v>0.5662184458333328</v>
       </c>
       <c r="BH89">
-        <v>0.8165832690228881</v>
+        <v>0.8165187705442374</v>
       </c>
       <c r="BI89">
         <v>-0.394</v>
@@ -17644,7 +17644,7 @@
         <v>0.003535</v>
       </c>
       <c r="BK89">
-        <v>0.09535</v>
+        <v>0.0953</v>
       </c>
       <c r="BL89">
         <v>1.0925</v>
@@ -17805,10 +17805,10 @@
         <v>696</v>
       </c>
       <c r="AY90">
-        <v>0.3124573160919536</v>
+        <v>0.3124414511494248</v>
       </c>
       <c r="AZ90">
-        <v>0.4286455974507076</v>
+        <v>0.4286377326160358</v>
       </c>
       <c r="BA90">
         <v>-0.282</v>
@@ -17829,10 +17829,10 @@
         <v>696</v>
       </c>
       <c r="BG90">
-        <v>0.5258163827586207</v>
+        <v>0.5257563211206898</v>
       </c>
       <c r="BH90">
-        <v>0.8162607740772378</v>
+        <v>0.81620431287712</v>
       </c>
       <c r="BI90">
         <v>-0.44</v>
@@ -18002,10 +18002,10 @@
         <v>696</v>
       </c>
       <c r="AY91">
-        <v>0.3241657787356322</v>
+        <v>0.3241509195402299</v>
       </c>
       <c r="AZ91">
-        <v>0.469379426927785</v>
+        <v>0.4693727588533438</v>
       </c>
       <c r="BA91">
         <v>-0.297</v>
@@ -18014,7 +18014,7 @@
         <v>-0.00692</v>
       </c>
       <c r="BC91">
-        <v>0.06105</v>
+        <v>0.061</v>
       </c>
       <c r="BD91">
         <v>0.586</v>
@@ -18026,10 +18026,10 @@
         <v>696</v>
       </c>
       <c r="BG91">
-        <v>0.5535426867816081</v>
+        <v>0.5534598994252864</v>
       </c>
       <c r="BH91">
-        <v>0.8880535019799848</v>
+        <v>0.8879521626842937</v>
       </c>
       <c r="BI91">
         <v>-0.463</v>
@@ -18199,10 +18199,10 @@
         <v>696</v>
       </c>
       <c r="AY92">
-        <v>0.3199830396551726</v>
+        <v>0.319963912356322</v>
       </c>
       <c r="AZ92">
-        <v>0.4806303550708829</v>
+        <v>0.4806251562164247</v>
       </c>
       <c r="BA92">
         <v>-0.31</v>
@@ -18223,10 +18223,10 @@
         <v>696</v>
       </c>
       <c r="BG92">
-        <v>0.5541808741379309</v>
+        <v>0.5541341477011493</v>
       </c>
       <c r="BH92">
-        <v>0.9208491487477969</v>
+        <v>0.9207999876977501</v>
       </c>
       <c r="BI92">
         <v>-0.482</v>
@@ -18235,10 +18235,10 @@
         <v>-0.007804999999999999</v>
       </c>
       <c r="BK92">
-        <v>0.0594</v>
+        <v>0.05935</v>
       </c>
       <c r="BL92">
-        <v>0.97275</v>
+        <v>0.9724999999999999</v>
       </c>
       <c r="BM92">
         <v>4.5</v>
@@ -18300,10 +18300,10 @@
         <v>696</v>
       </c>
       <c r="S93">
-        <v>4.731149425287357</v>
+        <v>4.731192528735632</v>
       </c>
       <c r="T93">
-        <v>1.940496888253989</v>
+        <v>1.940523963286202</v>
       </c>
       <c r="U93">
         <v>1.98</v>
@@ -18396,10 +18396,10 @@
         <v>696</v>
       </c>
       <c r="AY93">
-        <v>0.3192809190086209</v>
+        <v>0.3192642529310347</v>
       </c>
       <c r="AZ93">
-        <v>0.4817987520968402</v>
+        <v>0.4817953934839539</v>
       </c>
       <c r="BA93">
         <v>-0.302</v>
@@ -18420,10 +18420,10 @@
         <v>696</v>
       </c>
       <c r="BG93">
-        <v>0.5559370663074713</v>
+        <v>0.5558899235344829</v>
       </c>
       <c r="BH93">
-        <v>0.9320214425287162</v>
+        <v>0.9319984619732208</v>
       </c>
       <c r="BI93">
         <v>-0.47</v>
@@ -18545,10 +18545,10 @@
         <v>696</v>
       </c>
       <c r="AI94">
-        <v>126.8902298850575</v>
+        <v>126.8916666666667</v>
       </c>
       <c r="AJ94">
-        <v>55.49922487712294</v>
+        <v>55.50219610233679</v>
       </c>
       <c r="AK94">
         <v>46.8</v>
@@ -18593,10 +18593,10 @@
         <v>696</v>
       </c>
       <c r="AY94">
-        <v>0.3211890116379311</v>
+        <v>0.3211376413793103</v>
       </c>
       <c r="AZ94">
-        <v>0.4807489889294569</v>
+        <v>0.480676448491743</v>
       </c>
       <c r="BA94">
         <v>-0.3</v>
@@ -18617,10 +18617,10 @@
         <v>696</v>
       </c>
       <c r="BG94">
-        <v>0.5570117158045984</v>
+        <v>0.5569803742816096</v>
       </c>
       <c r="BH94">
-        <v>0.9234104018138718</v>
+        <v>0.9234008003172354</v>
       </c>
       <c r="BI94">
         <v>-0.467</v>
@@ -18670,10 +18670,10 @@
         <v>696</v>
       </c>
       <c r="K95">
-        <v>38.84022988505725</v>
+        <v>38.83821839080438</v>
       </c>
       <c r="L95">
-        <v>0.7167608625805257</v>
+        <v>0.7169313010089138</v>
       </c>
       <c r="M95">
         <v>38.3</v>
@@ -18694,34 +18694,34 @@
         <v>696</v>
       </c>
       <c r="S95">
-        <v>4.72563218390805</v>
+        <v>4.723951149425291</v>
       </c>
       <c r="T95">
-        <v>1.948617485132878</v>
+        <v>1.948618117383279</v>
       </c>
       <c r="U95">
         <v>1.95</v>
       </c>
       <c r="V95">
-        <v>2.8175</v>
+        <v>2.815</v>
       </c>
       <c r="W95">
         <v>4.4</v>
       </c>
       <c r="X95">
-        <v>6.215</v>
+        <v>6.2075</v>
       </c>
       <c r="Y95">
-        <v>8.789999999999999</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="Z95">
         <v>696</v>
       </c>
       <c r="AA95">
-        <v>38.54238505747129</v>
+        <v>38.54252873563221</v>
       </c>
       <c r="AB95">
-        <v>1.05306653325412</v>
+        <v>1.053012908858878</v>
       </c>
       <c r="AC95">
         <v>36</v>
@@ -18742,10 +18742,10 @@
         <v>696</v>
       </c>
       <c r="AI95">
-        <v>126.8441091954024</v>
+        <v>126.8370689655173</v>
       </c>
       <c r="AJ95">
-        <v>55.54953995947142</v>
+        <v>55.55037047478512</v>
       </c>
       <c r="AK95">
         <v>46</v>
@@ -18766,10 +18766,10 @@
         <v>696</v>
       </c>
       <c r="AQ95">
-        <v>1.354060201149424</v>
+        <v>1.353965373563217</v>
       </c>
       <c r="AR95">
-        <v>0.9164730876961558</v>
+        <v>0.9164387794987012</v>
       </c>
       <c r="AS95">
         <v>0.0556</v>
@@ -18790,10 +18790,10 @@
         <v>696</v>
       </c>
       <c r="AY95">
-        <v>0.3000864899425287</v>
+        <v>0.3000626896551724</v>
       </c>
       <c r="AZ95">
-        <v>0.4692743557572459</v>
+        <v>0.4692541807860074</v>
       </c>
       <c r="BA95">
         <v>-0.312</v>
@@ -18814,10 +18814,10 @@
         <v>696</v>
       </c>
       <c r="BG95">
-        <v>0.5302798362068969</v>
+        <v>0.5302766034482762</v>
       </c>
       <c r="BH95">
-        <v>0.9143078663000603</v>
+        <v>0.914302207092707</v>
       </c>
       <c r="BI95">
         <v>-0.485</v>
@@ -18939,10 +18939,10 @@
         <v>696</v>
       </c>
       <c r="AI96">
-        <v>126.9545977011494</v>
+        <v>126.9560344827586</v>
       </c>
       <c r="AJ96">
-        <v>55.58396571870149</v>
+        <v>55.58330677739137</v>
       </c>
       <c r="AK96">
         <v>46.1</v>
@@ -18987,10 +18987,10 @@
         <v>696</v>
       </c>
       <c r="AY96">
-        <v>0.2652561206896553</v>
+        <v>0.2652250718390805</v>
       </c>
       <c r="AZ96">
-        <v>0.45185608620059</v>
+        <v>0.4517949457747085</v>
       </c>
       <c r="BA96">
         <v>-0.299</v>
@@ -19011,16 +19011,16 @@
         <v>696</v>
       </c>
       <c r="BG96">
-        <v>0.4854031612068961</v>
+        <v>0.4853687624999997</v>
       </c>
       <c r="BH96">
-        <v>0.9121700100316699</v>
+        <v>0.9121005226005123</v>
       </c>
       <c r="BI96">
         <v>-0.464</v>
       </c>
       <c r="BJ96">
-        <v>-0.004155</v>
+        <v>-0.0041475</v>
       </c>
       <c r="BK96">
         <v>0.0495</v>
@@ -19184,10 +19184,10 @@
         <v>696</v>
       </c>
       <c r="AY97">
-        <v>0.2857517311781608</v>
+        <v>0.2857048202586205</v>
       </c>
       <c r="AZ97">
-        <v>0.4387440881991336</v>
+        <v>0.4386432247883436</v>
       </c>
       <c r="BA97">
         <v>-0.262</v>
@@ -19208,10 +19208,10 @@
         <v>696</v>
       </c>
       <c r="BG97">
-        <v>0.5072926179597699</v>
+        <v>0.5072352041666665</v>
       </c>
       <c r="BH97">
-        <v>0.8700413717037093</v>
+        <v>0.8699639277218225</v>
       </c>
       <c r="BI97">
         <v>-0.407</v>
@@ -19223,7 +19223,7 @@
         <v>0.05155</v>
       </c>
       <c r="BL97">
-        <v>0.831</v>
+        <v>0.8302499999999999</v>
       </c>
       <c r="BM97">
         <v>4.21</v>
@@ -19261,10 +19261,10 @@
         <v>696</v>
       </c>
       <c r="K98">
-        <v>38.93462643678171</v>
+        <v>38.93520114942539</v>
       </c>
       <c r="L98">
-        <v>0.7530995929758417</v>
+        <v>0.7531302273423928</v>
       </c>
       <c r="M98">
         <v>38.3</v>
@@ -19285,10 +19285,10 @@
         <v>696</v>
       </c>
       <c r="S98">
-        <v>4.808836206896557</v>
+        <v>4.809367816091959</v>
       </c>
       <c r="T98">
-        <v>1.906303801392939</v>
+        <v>1.906247706672174</v>
       </c>
       <c r="U98">
         <v>2.12</v>
@@ -19333,10 +19333,10 @@
         <v>696</v>
       </c>
       <c r="AI98">
-        <v>127.5867816091954</v>
+        <v>127.5885057471265</v>
       </c>
       <c r="AJ98">
-        <v>55.51931672903326</v>
+        <v>55.52089875557952</v>
       </c>
       <c r="AK98">
         <v>49.8</v>
@@ -19357,10 +19357,10 @@
         <v>696</v>
       </c>
       <c r="AQ98">
-        <v>1.362260344827585</v>
+        <v>1.362281896551723</v>
       </c>
       <c r="AR98">
-        <v>0.9183649872577282</v>
+        <v>0.9183733402460409</v>
       </c>
       <c r="AS98">
         <v>0.0559</v>
@@ -19381,10 +19381,10 @@
         <v>696</v>
       </c>
       <c r="AY98">
-        <v>0.2966640804597701</v>
+        <v>0.2966279956896551</v>
       </c>
       <c r="AZ98">
-        <v>0.3956111241902053</v>
+        <v>0.3955955745553822</v>
       </c>
       <c r="BA98">
         <v>-0.241</v>
@@ -19405,10 +19405,10 @@
         <v>696</v>
       </c>
       <c r="BG98">
-        <v>0.4869878764367814</v>
+        <v>0.486893290229885</v>
       </c>
       <c r="BH98">
-        <v>0.7126069803259252</v>
+        <v>0.7125150044034601</v>
       </c>
       <c r="BI98">
         <v>-0.376</v>
@@ -19420,7 +19420,7 @@
         <v>0.0527</v>
       </c>
       <c r="BL98">
-        <v>0.9395</v>
+        <v>0.93875</v>
       </c>
       <c r="BM98">
         <v>2.99</v>
@@ -19578,10 +19578,10 @@
         <v>696</v>
       </c>
       <c r="AY99">
-        <v>0.2972175330459773</v>
+        <v>0.2971756448275865</v>
       </c>
       <c r="AZ99">
-        <v>0.4104030111422887</v>
+        <v>0.410366750729484</v>
       </c>
       <c r="BA99">
         <v>-0.254</v>
@@ -19590,7 +19590,7 @@
         <v>-0.0017125</v>
       </c>
       <c r="BC99">
-        <v>0.0587</v>
+        <v>0.05865</v>
       </c>
       <c r="BD99">
         <v>0.5782499999999999</v>
@@ -19602,10 +19602,10 @@
         <v>696</v>
       </c>
       <c r="BG99">
-        <v>0.4781043716954027</v>
+        <v>0.4780195119252879</v>
       </c>
       <c r="BH99">
-        <v>0.7133761043888911</v>
+        <v>0.7132191459136551</v>
       </c>
       <c r="BI99">
         <v>-0.397</v>
@@ -19614,7 +19614,7 @@
         <v>-0.0021325</v>
       </c>
       <c r="BK99">
-        <v>0.04965</v>
+        <v>0.0496</v>
       </c>
       <c r="BL99">
         <v>0.88025</v>
@@ -19727,10 +19727,10 @@
         <v>696</v>
       </c>
       <c r="AI100">
-        <v>127.3912356321839</v>
+        <v>127.3913793103448</v>
       </c>
       <c r="AJ100">
-        <v>55.52910723587644</v>
+        <v>55.52898871262905</v>
       </c>
       <c r="AK100">
         <v>49</v>
@@ -19751,10 +19751,10 @@
         <v>696</v>
       </c>
       <c r="AQ100">
-        <v>1.359618678160918</v>
+        <v>1.359620114942527</v>
       </c>
       <c r="AR100">
-        <v>0.917979936268561</v>
+        <v>0.9179790191473914</v>
       </c>
       <c r="AS100">
         <v>0.0558</v>
@@ -19775,10 +19775,10 @@
         <v>696</v>
       </c>
       <c r="AY100">
-        <v>0.2994148678160921</v>
+        <v>0.2993762471264368</v>
       </c>
       <c r="AZ100">
-        <v>0.4304549081228423</v>
+        <v>0.4304067952143796</v>
       </c>
       <c r="BA100">
         <v>-0.285</v>
@@ -19799,10 +19799,10 @@
         <v>696</v>
       </c>
       <c r="BG100">
-        <v>0.4864554137931032</v>
+        <v>0.4863977097701149</v>
       </c>
       <c r="BH100">
-        <v>0.746617336828939</v>
+        <v>0.7465367685222531</v>
       </c>
       <c r="BI100">
         <v>-0.444</v>
@@ -19814,7 +19814,7 @@
         <v>0.0398</v>
       </c>
       <c r="BL100">
-        <v>0.86575</v>
+        <v>0.86475</v>
       </c>
       <c r="BM100">
         <v>3.04</v>
@@ -19852,10 +19852,10 @@
         <v>696</v>
       </c>
       <c r="K101">
-        <v>38.81767241379287</v>
+        <v>38.81738505747103</v>
       </c>
       <c r="L101">
-        <v>0.7059996018813429</v>
+        <v>0.7060678843233145</v>
       </c>
       <c r="M101">
         <v>38.3</v>
@@ -19876,10 +19876,10 @@
         <v>696</v>
       </c>
       <c r="S101">
-        <v>4.692097701149421</v>
+        <v>4.691594827586202</v>
       </c>
       <c r="T101">
-        <v>1.948483098383292</v>
+        <v>1.948371587083559</v>
       </c>
       <c r="U101">
         <v>1.9</v>
@@ -19894,7 +19894,7 @@
         <v>6.185</v>
       </c>
       <c r="Y101">
-        <v>8.77</v>
+        <v>8.76</v>
       </c>
       <c r="Z101">
         <v>696</v>
@@ -19924,10 +19924,10 @@
         <v>696</v>
       </c>
       <c r="AI101">
-        <v>126.9051724137932</v>
+        <v>126.9034482758622</v>
       </c>
       <c r="AJ101">
-        <v>55.54745875957327</v>
+        <v>55.54036566595609</v>
       </c>
       <c r="AK101">
         <v>46.5</v>
@@ -19942,16 +19942,16 @@
         <v>138.75</v>
       </c>
       <c r="AO101">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AP101">
         <v>696</v>
       </c>
       <c r="AQ101">
-        <v>1.354838936781608</v>
+        <v>1.354837499999999</v>
       </c>
       <c r="AR101">
-        <v>0.9161283487526295</v>
+        <v>0.9161294706741893</v>
       </c>
       <c r="AS101">
         <v>0.0556</v>
@@ -19972,10 +19972,10 @@
         <v>696</v>
       </c>
       <c r="AY101">
-        <v>0.2811056781609198</v>
+        <v>0.2810298735632185</v>
       </c>
       <c r="AZ101">
-        <v>0.4260390318314499</v>
+        <v>0.4259097730463763</v>
       </c>
       <c r="BA101">
         <v>-0.318</v>
@@ -19996,25 +19996,25 @@
         <v>696</v>
       </c>
       <c r="BG101">
-        <v>0.4511870102011497</v>
+        <v>0.4511212102011497</v>
       </c>
       <c r="BH101">
-        <v>0.7021298300717885</v>
+        <v>0.7020458219303147</v>
       </c>
       <c r="BI101">
         <v>-0.495</v>
       </c>
       <c r="BJ101">
-        <v>-0.013475</v>
+        <v>-0.01345</v>
       </c>
       <c r="BK101">
-        <v>0.03605</v>
+        <v>0.036</v>
       </c>
       <c r="BL101">
         <v>0.8325</v>
       </c>
       <c r="BM101">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="102" spans="1:65">
@@ -20073,10 +20073,10 @@
         <v>696</v>
       </c>
       <c r="S102">
-        <v>4.669741379310345</v>
+        <v>4.669755747126437</v>
       </c>
       <c r="T102">
-        <v>1.956360206291293</v>
+        <v>1.956375322039803</v>
       </c>
       <c r="U102">
         <v>1.88</v>
@@ -20169,10 +20169,10 @@
         <v>696</v>
       </c>
       <c r="AY102">
-        <v>0.2874782012931033</v>
+        <v>0.2874597201867815</v>
       </c>
       <c r="AZ102">
-        <v>0.4287836766492832</v>
+        <v>0.428775489646821</v>
       </c>
       <c r="BA102">
         <v>-0.321</v>
@@ -20193,10 +20193,10 @@
         <v>696</v>
       </c>
       <c r="BG102">
-        <v>0.4663612410775866</v>
+        <v>0.466321593706897</v>
       </c>
       <c r="BH102">
-        <v>0.7279782197115976</v>
+        <v>0.7279576065667097</v>
       </c>
       <c r="BI102">
         <v>-0.499</v>
@@ -20246,10 +20246,10 @@
         <v>696</v>
       </c>
       <c r="K103">
-        <v>38.82902298850551</v>
+        <v>38.82931034482735</v>
       </c>
       <c r="L103">
-        <v>0.7191058953168181</v>
+        <v>0.7189141181691354</v>
       </c>
       <c r="M103">
         <v>38.3</v>
@@ -20270,10 +20270,10 @@
         <v>696</v>
       </c>
       <c r="S103">
-        <v>4.703692528735629</v>
+        <v>4.703979885057469</v>
       </c>
       <c r="T103">
-        <v>1.939996295405922</v>
+        <v>1.94010267314094</v>
       </c>
       <c r="U103">
         <v>1.94</v>
@@ -20318,10 +20318,10 @@
         <v>696</v>
       </c>
       <c r="AI103">
-        <v>126.9</v>
+        <v>126.9030172413794</v>
       </c>
       <c r="AJ103">
-        <v>55.52633751899535</v>
+        <v>55.52767957979378</v>
       </c>
       <c r="AK103">
         <v>46.1</v>
@@ -20342,10 +20342,10 @@
         <v>696</v>
       </c>
       <c r="AQ103">
-        <v>1.354817672413793</v>
+        <v>1.354819109195402</v>
       </c>
       <c r="AR103">
-        <v>0.9162073869350147</v>
+        <v>0.9162056903580035</v>
       </c>
       <c r="AS103">
         <v>0.0556</v>
@@ -20366,10 +20366,10 @@
         <v>696</v>
       </c>
       <c r="AY103">
-        <v>0.2921677860632184</v>
+        <v>0.292144345387931</v>
       </c>
       <c r="AZ103">
-        <v>0.4147272916014015</v>
+        <v>0.4147167936286901</v>
       </c>
       <c r="BA103">
         <v>-0.288</v>
@@ -20378,10 +20378,10 @@
         <v>-0.0043075</v>
       </c>
       <c r="BC103">
-        <v>0.06155000000000001</v>
+        <v>0.0615</v>
       </c>
       <c r="BD103">
-        <v>0.57175</v>
+        <v>0.571</v>
       </c>
       <c r="BE103">
         <v>1.67</v>
@@ -20390,10 +20390,10 @@
         <v>696</v>
       </c>
       <c r="BG103">
-        <v>0.4609087160057468</v>
+        <v>0.4608776891379306</v>
       </c>
       <c r="BH103">
-        <v>0.6917318228587639</v>
+        <v>0.6917226950988751</v>
       </c>
       <c r="BI103">
         <v>-0.448</v>
@@ -20443,10 +20443,10 @@
         <v>696</v>
       </c>
       <c r="K104">
-        <v>38.85114942528713</v>
+        <v>38.84669540229862</v>
       </c>
       <c r="L104">
-        <v>0.734865602609726</v>
+        <v>0.7352505562514333</v>
       </c>
       <c r="M104">
         <v>38.3</v>
@@ -20455,10 +20455,10 @@
         <v>38.3</v>
       </c>
       <c r="O104">
-        <v>38.45</v>
+        <v>38.4</v>
       </c>
       <c r="P104">
-        <v>39.1</v>
+        <v>39.025</v>
       </c>
       <c r="Q104">
         <v>40.5</v>
@@ -20467,34 +20467,34 @@
         <v>696</v>
       </c>
       <c r="S104">
-        <v>4.728160919540229</v>
+        <v>4.725359195402297</v>
       </c>
       <c r="T104">
-        <v>1.924862041576906</v>
+        <v>1.924786341576924</v>
       </c>
       <c r="U104">
         <v>2</v>
       </c>
       <c r="V104">
-        <v>2.86</v>
+        <v>2.855</v>
       </c>
       <c r="W104">
-        <v>4.42</v>
+        <v>4.415</v>
       </c>
       <c r="X104">
         <v>6.2</v>
       </c>
       <c r="Y104">
-        <v>8.800000000000001</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="Z104">
         <v>696</v>
       </c>
       <c r="AA104">
-        <v>38.58477011494248</v>
+        <v>38.5849137931034</v>
       </c>
       <c r="AB104">
-        <v>1.0565714630016</v>
+        <v>1.056403287682665</v>
       </c>
       <c r="AC104">
         <v>36.7</v>
@@ -20515,16 +20515,16 @@
         <v>696</v>
       </c>
       <c r="AI104">
-        <v>127.1633620689655</v>
+        <v>127.1548850574713</v>
       </c>
       <c r="AJ104">
-        <v>55.46574904931055</v>
+        <v>55.46630325022355</v>
       </c>
       <c r="AK104">
         <v>48.2</v>
       </c>
       <c r="AL104">
-        <v>93.75</v>
+        <v>93.675</v>
       </c>
       <c r="AM104">
         <v>112</v>
@@ -20539,10 +20539,10 @@
         <v>696</v>
       </c>
       <c r="AQ104">
-        <v>1.357095258620689</v>
+        <v>1.356935632183907</v>
       </c>
       <c r="AR104">
-        <v>0.9163305961917103</v>
+        <v>0.9161874795859767</v>
       </c>
       <c r="AS104">
         <v>0.0557</v>
@@ -20563,16 +20563,16 @@
         <v>696</v>
       </c>
       <c r="AY104">
-        <v>0.3055975170977014</v>
+        <v>0.3055608895114945</v>
       </c>
       <c r="AZ104">
-        <v>0.4224981251505186</v>
+        <v>0.4224620511490175</v>
       </c>
       <c r="BA104">
-        <v>-0.266</v>
+        <v>-0.265</v>
       </c>
       <c r="BB104">
-        <v>-0.00151</v>
+        <v>-0.0015075</v>
       </c>
       <c r="BC104">
         <v>0.0644</v>
@@ -20587,22 +20587,22 @@
         <v>696</v>
       </c>
       <c r="BG104">
-        <v>0.4860714823275862</v>
+        <v>0.4859507323275862</v>
       </c>
       <c r="BH104">
-        <v>0.7271035021756657</v>
+        <v>0.7269965520445413</v>
       </c>
       <c r="BI104">
         <v>-0.413</v>
       </c>
       <c r="BJ104">
-        <v>-0.000976</v>
+        <v>-0.000977</v>
       </c>
       <c r="BK104">
         <v>0.04875</v>
       </c>
       <c r="BL104">
-        <v>0.86825</v>
+        <v>0.8674999999999999</v>
       </c>
       <c r="BM104">
         <v>2.91</v>
@@ -20760,10 +20760,10 @@
         <v>696</v>
       </c>
       <c r="AY105">
-        <v>0.3055231077586206</v>
+        <v>0.3054840606321839</v>
       </c>
       <c r="AZ105">
-        <v>0.4272641271113523</v>
+        <v>0.4272541475861043</v>
       </c>
       <c r="BA105">
         <v>-0.274</v>
@@ -20775,7 +20775,7 @@
         <v>0.05685</v>
       </c>
       <c r="BD105">
-        <v>0.6054999999999999</v>
+        <v>0.60475</v>
       </c>
       <c r="BE105">
         <v>1.6</v>
@@ -20784,10 +20784,10 @@
         <v>696</v>
       </c>
       <c r="BG105">
-        <v>0.4954898724137932</v>
+        <v>0.4954343810344828</v>
       </c>
       <c r="BH105">
-        <v>0.75070181939395</v>
+        <v>0.7506358036181655</v>
       </c>
       <c r="BI105">
         <v>-0.427</v>
@@ -20909,10 +20909,10 @@
         <v>696</v>
       </c>
       <c r="AI106">
-        <v>127.0244252873563</v>
+        <v>127.0258620689655</v>
       </c>
       <c r="AJ106">
-        <v>55.38121340518262</v>
+        <v>55.38361592497223</v>
       </c>
       <c r="AK106">
         <v>49</v>
@@ -20957,10 +20957,10 @@
         <v>696</v>
       </c>
       <c r="AY106">
-        <v>0.3359837349137929</v>
+        <v>0.3359611008620688</v>
       </c>
       <c r="AZ106">
-        <v>0.4796888367162582</v>
+        <v>0.4796809428040866</v>
       </c>
       <c r="BA106">
         <v>-0.274</v>
@@ -20981,10 +20981,10 @@
         <v>696</v>
       </c>
       <c r="BG106">
-        <v>0.5576977794540227</v>
+        <v>0.5576319528735627</v>
       </c>
       <c r="BH106">
-        <v>0.8697765650275646</v>
+        <v>0.8697145921417684</v>
       </c>
       <c r="BI106">
         <v>-0.426</v>
@@ -21058,10 +21058,10 @@
         <v>696</v>
       </c>
       <c r="S107">
-        <v>4.70557471264368</v>
+        <v>4.705589080459772</v>
       </c>
       <c r="T107">
-        <v>1.923948716061811</v>
+        <v>1.923947814274923</v>
       </c>
       <c r="U107">
         <v>1.98</v>
@@ -21154,10 +21154,10 @@
         <v>696</v>
       </c>
       <c r="AY107">
-        <v>0.3367228491379315</v>
+        <v>0.3366915229885063</v>
       </c>
       <c r="AZ107">
-        <v>0.4731479690325325</v>
+        <v>0.4731089476148319</v>
       </c>
       <c r="BA107">
         <v>-0.278</v>
@@ -21166,7 +21166,7 @@
         <v>-0.0082025</v>
       </c>
       <c r="BC107">
-        <v>0.0524</v>
+        <v>0.05234999999999999</v>
       </c>
       <c r="BD107">
         <v>0.6882499999999999</v>
@@ -21178,10 +21178,10 @@
         <v>696</v>
       </c>
       <c r="BG107">
-        <v>0.5574097313218389</v>
+        <v>0.5573966609195399</v>
       </c>
       <c r="BH107">
-        <v>0.8538479082727607</v>
+        <v>0.8538469698811335</v>
       </c>
       <c r="BI107">
         <v>-0.433</v>
@@ -21255,10 +21255,10 @@
         <v>696</v>
       </c>
       <c r="S108">
-        <v>4.703591954022992</v>
+        <v>4.703606321839084</v>
       </c>
       <c r="T108">
-        <v>1.92521818631385</v>
+        <v>1.925243906114736</v>
       </c>
       <c r="U108">
         <v>1.98</v>
@@ -21351,10 +21351,10 @@
         <v>696</v>
       </c>
       <c r="AY108">
-        <v>0.3358214487787357</v>
+        <v>0.3357983854454025</v>
       </c>
       <c r="AZ108">
-        <v>0.4725188988702727</v>
+        <v>0.4725107698275399</v>
       </c>
       <c r="BA108">
         <v>-0.28</v>
@@ -21375,10 +21375,10 @@
         <v>696</v>
       </c>
       <c r="BG108">
-        <v>0.5548824537931043</v>
+        <v>0.5548219822270124</v>
       </c>
       <c r="BH108">
-        <v>0.8477839085344682</v>
+        <v>0.8477053233917297</v>
       </c>
       <c r="BI108">
         <v>-0.435</v>
@@ -21387,7 +21387,7 @@
         <v>-0.007365</v>
       </c>
       <c r="BK108">
-        <v>0.04105</v>
+        <v>0.041</v>
       </c>
       <c r="BL108">
         <v>1.04</v>
@@ -21476,10 +21476,10 @@
         <v>696</v>
       </c>
       <c r="AA109">
-        <v>38.5538793103448</v>
+        <v>38.55359195402296</v>
       </c>
       <c r="AB109">
-        <v>1.106104399994155</v>
+        <v>1.106469542773884</v>
       </c>
       <c r="AC109">
         <v>36.7</v>
@@ -21548,10 +21548,10 @@
         <v>696</v>
       </c>
       <c r="AY109">
-        <v>0.3432284550287358</v>
+        <v>0.3432460841954025</v>
       </c>
       <c r="AZ109">
-        <v>0.468171960473211</v>
+        <v>0.468199108971058</v>
       </c>
       <c r="BA109">
         <v>-0.257</v>
@@ -21572,10 +21572,10 @@
         <v>696</v>
       </c>
       <c r="BG109">
-        <v>0.5615712761494259</v>
+        <v>0.5615990456896558</v>
       </c>
       <c r="BH109">
-        <v>0.8384999993860071</v>
+        <v>0.838500732862468</v>
       </c>
       <c r="BI109">
         <v>-0.4</v>
@@ -21697,10 +21697,10 @@
         <v>696</v>
       </c>
       <c r="AI110">
-        <v>127.3770114942528</v>
+        <v>127.3771551724137</v>
       </c>
       <c r="AJ110">
-        <v>55.40935474331357</v>
+        <v>55.4092375589065</v>
       </c>
       <c r="AK110">
         <v>50.1</v>
@@ -21745,10 +21745,10 @@
         <v>696</v>
       </c>
       <c r="AY110">
-        <v>0.312435689640805</v>
+        <v>0.3124201855603453</v>
       </c>
       <c r="AZ110">
-        <v>0.4254305682654176</v>
+        <v>0.4254254939826986</v>
       </c>
       <c r="BA110">
         <v>-0.248</v>
@@ -21769,10 +21769,10 @@
         <v>696</v>
       </c>
       <c r="BG110">
-        <v>0.4984030182083324</v>
+        <v>0.498351636007183</v>
       </c>
       <c r="BH110">
-        <v>0.7297451137846571</v>
+        <v>0.7296881824867198</v>
       </c>
       <c r="BI110">
         <v>-0.387</v>
@@ -21784,7 +21784,7 @@
         <v>0.049</v>
       </c>
       <c r="BL110">
-        <v>0.9722499999999999</v>
+        <v>0.9712499999999999</v>
       </c>
       <c r="BM110">
         <v>2.97</v>
@@ -21822,10 +21822,10 @@
         <v>696</v>
       </c>
       <c r="K111">
-        <v>38.88706896551706</v>
+        <v>38.88620689655154</v>
       </c>
       <c r="L111">
-        <v>0.7653311886565469</v>
+        <v>0.7655040998690971</v>
       </c>
       <c r="M111">
         <v>38.3</v>
@@ -21846,10 +21846,10 @@
         <v>696</v>
       </c>
       <c r="S111">
-        <v>4.769683908045975</v>
+        <v>4.768706896551722</v>
       </c>
       <c r="T111">
-        <v>1.899687263341854</v>
+        <v>1.899680183688215</v>
       </c>
       <c r="U111">
         <v>2.09</v>
@@ -21870,10 +21870,10 @@
         <v>696</v>
       </c>
       <c r="AA111">
-        <v>38.63764367816091</v>
+        <v>38.63778735632182</v>
       </c>
       <c r="AB111">
-        <v>1.07259769096573</v>
+        <v>1.072451768148746</v>
       </c>
       <c r="AC111">
         <v>36.8</v>
@@ -21894,16 +21894,16 @@
         <v>696</v>
       </c>
       <c r="AI111">
-        <v>127.5722701149426</v>
+        <v>127.5701149425288</v>
       </c>
       <c r="AJ111">
-        <v>55.43156743946536</v>
+        <v>55.43240771446555</v>
       </c>
       <c r="AK111">
         <v>50.8</v>
       </c>
       <c r="AL111">
-        <v>95.17500000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AM111">
         <v>112</v>
@@ -21918,10 +21918,10 @@
         <v>696</v>
       </c>
       <c r="AQ111">
-        <v>1.362013793103447</v>
+        <v>1.36200948275862</v>
       </c>
       <c r="AR111">
-        <v>0.9175504173061479</v>
+        <v>0.9175540248634089</v>
       </c>
       <c r="AS111">
         <v>0.0559</v>
@@ -21942,10 +21942,10 @@
         <v>696</v>
       </c>
       <c r="AY111">
-        <v>0.3022386992816093</v>
+        <v>0.3021928205459771</v>
       </c>
       <c r="AZ111">
-        <v>0.4127711408582607</v>
+        <v>0.4127461951369428</v>
       </c>
       <c r="BA111">
         <v>-0.237</v>
@@ -21957,7 +21957,7 @@
         <v>0.06335</v>
       </c>
       <c r="BD111">
-        <v>0.5882499999999999</v>
+        <v>0.588</v>
       </c>
       <c r="BE111">
         <v>1.61</v>
@@ -21966,10 +21966,10 @@
         <v>696</v>
       </c>
       <c r="BG111">
-        <v>0.4825433972701151</v>
+        <v>0.4823943849137933</v>
       </c>
       <c r="BH111">
-        <v>0.7197382224655698</v>
+        <v>0.7195120320754719</v>
       </c>
       <c r="BI111">
         <v>-0.371</v>
@@ -22019,10 +22019,10 @@
         <v>696</v>
       </c>
       <c r="K112">
-        <v>38.92787356321824</v>
+        <v>38.91982758620672</v>
       </c>
       <c r="L112">
-        <v>0.7562109759226281</v>
+        <v>0.7569594415356692</v>
       </c>
       <c r="M112">
         <v>38.3</v>
@@ -22043,10 +22043,10 @@
         <v>696</v>
       </c>
       <c r="S112">
-        <v>4.80416666666667</v>
+        <v>4.799238505747128</v>
       </c>
       <c r="T112">
-        <v>1.912636327643744</v>
+        <v>1.912283916944443</v>
       </c>
       <c r="U112">
         <v>2</v>
@@ -22055,22 +22055,22 @@
         <v>2.94</v>
       </c>
       <c r="W112">
-        <v>4.49</v>
+        <v>4.485</v>
       </c>
       <c r="X112">
         <v>6.22</v>
       </c>
       <c r="Y112">
-        <v>9.01</v>
+        <v>8.98</v>
       </c>
       <c r="Z112">
         <v>696</v>
       </c>
       <c r="AA112">
-        <v>38.62945402298849</v>
+        <v>38.62974137931033</v>
       </c>
       <c r="AB112">
-        <v>1.060722024034364</v>
+        <v>1.060524068527242</v>
       </c>
       <c r="AC112">
         <v>36.8</v>
@@ -22091,10 +22091,10 @@
         <v>696</v>
       </c>
       <c r="AI112">
-        <v>127.630459770115</v>
+        <v>127.607183908046</v>
       </c>
       <c r="AJ112">
-        <v>55.52474351863216</v>
+        <v>55.51770608845796</v>
       </c>
       <c r="AK112">
         <v>50.1</v>
@@ -22115,10 +22115,10 @@
         <v>696</v>
       </c>
       <c r="AQ112">
-        <v>1.362351005747125</v>
+        <v>1.362154022988505</v>
       </c>
       <c r="AR112">
-        <v>0.9184441630610201</v>
+        <v>0.9182871217643104</v>
       </c>
       <c r="AS112">
         <v>0.0558</v>
@@ -22130,28 +22130,28 @@
         <v>1.265</v>
       </c>
       <c r="AV112">
-        <v>1.86</v>
+        <v>1.8525</v>
       </c>
       <c r="AW112">
-        <v>5.43</v>
+        <v>5.42</v>
       </c>
       <c r="AX112">
         <v>696</v>
       </c>
       <c r="AY112">
-        <v>0.2904407543678161</v>
+        <v>0.2904155353160919</v>
       </c>
       <c r="AZ112">
-        <v>0.4123612495278438</v>
+        <v>0.4123431015942089</v>
       </c>
       <c r="BA112">
         <v>-0.337</v>
       </c>
       <c r="BB112">
-        <v>-0.0068825</v>
+        <v>-0.0068975</v>
       </c>
       <c r="BC112">
-        <v>0.0529</v>
+        <v>0.05285</v>
       </c>
       <c r="BD112">
         <v>0.571</v>
@@ -22163,19 +22163,19 @@
         <v>696</v>
       </c>
       <c r="BG112">
-        <v>0.4698582550143681</v>
+        <v>0.469828486508621</v>
       </c>
       <c r="BH112">
-        <v>0.7165688481264867</v>
+        <v>0.7165358865489954</v>
       </c>
       <c r="BI112">
         <v>-0.525</v>
       </c>
       <c r="BJ112">
-        <v>-0.0045125</v>
+        <v>-0.00452</v>
       </c>
       <c r="BK112">
-        <v>0.04495</v>
+        <v>0.0449</v>
       </c>
       <c r="BL112">
         <v>0.82875</v>
